--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E242971-069E-4186-849E-E6E91C7243E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CF037-0B89-4E5A-9386-1D8FE6F9EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10428" yWindow="11820" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
@@ -84,6 +84,46 @@
   </si>
   <si>
     <t>#세팅 관련 - 언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 액터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어블 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 효과 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 가함(value_1 = 대미지 값)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -607,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C10" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -615,6 +655,78 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ACTOR_TYPE_PLAYER</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ACTOR_TYPE_MONSTER</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DAMAGE</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CF037-0B89-4E5A-9386-1D8FE6F9EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F258D1B-CBE2-47A6-BF37-C82648462526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10428" yWindow="11820" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10425" yWindow="11820" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>int</t>
   </si>
@@ -123,7 +112,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대미지 가함(value_1 = 대미지 값)</t>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>dot_skill_damage</t>
+  </si>
+  <si>
+    <t>dot_heal</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t>ap_up</t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t>fusion_level_up</t>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflect_damage</t>
+  </si>
+  <si>
+    <t>reflect_damage_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_invincible</t>
+  </si>
+  <si>
+    <t>avoid_up</t>
+  </si>
+  <si>
+    <t>avoid_down</t>
+  </si>
+  <si>
+    <t>all_up_per</t>
+  </si>
+  <si>
+    <t>all_down_per</t>
+  </si>
+  <si>
+    <t>dot_draw</t>
+  </si>
+  <si>
+    <t>damage_spread</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>반격 (피격 시 피해를 준 대상에게 자신 공격력 비례 피해, value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 가함 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사_비율 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 레벨업 (value_1 = 레벨업 수치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 감소 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 확산 (value_1 = 피해량 반영 비율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발  (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화 (value_1 = 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,9 +461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +501,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +607,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,24 +757,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="80.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -600,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -615,7 +806,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -630,7 +821,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -639,7 +830,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -647,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C10" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C38" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -657,7 +848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -666,7 +857,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -684,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -702,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -711,7 +902,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -726,11 +917,516 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_HEAL</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DOT_SKILL_DAMAGE</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DOT_HEAL</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DRAW</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_ARMOR</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_ARMOR_DOWN</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DEBUFF_DISPEL</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_BUFF_DISPEL</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_AP_UP</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_AP_STOP</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_ACTION_CANCEL</v>
+      </c>
+      <c r="D21" s="3">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_FUSION_LEVEL_UP</v>
+      </c>
+      <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_STUN</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_REFLECT_DAMAGE</v>
+      </c>
+      <c r="D24" s="3">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_REFLECT_DAMAGE_PER</v>
+      </c>
+      <c r="D25" s="3">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DAMAGE_INVINCIBLE</v>
+      </c>
+      <c r="D26" s="3">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_AVOID_UP</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_AVOID_DOWN</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_ALL_UP_PER</v>
+      </c>
+      <c r="D29" s="3">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_ALL_DOWN_PER</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DOT_DRAW</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DEBUFF_ACCURACY_UP</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DEBUFF_ACCURACY_DOWN</v>
+      </c>
+      <c r="D33" s="3">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_UP</v>
+      </c>
+      <c r="D34" s="3">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_DOWN</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DAMAGE_SPREAD</v>
+      </c>
+      <c r="D36" s="3">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_PROVOKE</v>
+      </c>
+      <c r="D37" s="3">
+        <v>27</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_COUNTER</v>
+      </c>
+      <c r="D38" s="3">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F258D1B-CBE2-47A6-BF37-C82648462526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B11217-02BA-4C92-859E-8BEB024AD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="11820" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>int</t>
   </si>
@@ -315,6 +326,34 @@
   </si>
   <si>
     <t>피해 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 타겟 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내자신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,9 +500,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -501,7 +540,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -607,7 +646,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -749,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,11 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -999,9 +1038,8 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ARMOR</v>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -1422,6 +1460,51 @@
       </c>
       <c r="E38" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" ref="C40" si="1">UPPER(A40)&amp;"_"&amp;UPPER(B40)</f>
+        <v>TARGET_TYPE_ALLY</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" ref="C41" si="2">UPPER(A41)&amp;"_"&amp;UPPER(B41)</f>
+        <v>TARGET_TYPE_ENEMY</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B11217-02BA-4C92-859E-8BEB024AD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A73AF59-B948-48AC-ADD7-50D6C0BB1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="1080" yWindow="3300" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>int</t>
   </si>
@@ -326,10 +326,6 @@
   </si>
   <si>
     <t>피해 무효화 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,7 +796,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1038,8 +1034,9 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_ARMOR</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1473,10 +1470,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" ref="C40" si="1">UPPER(A40)&amp;"_"&amp;UPPER(B40)</f>
@@ -1486,15 +1483,15 @@
         <v>0</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" ref="C41" si="2">UPPER(A41)&amp;"_"&amp;UPPER(B41)</f>
@@ -1504,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A73AF59-B948-48AC-ADD7-50D6C0BB1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DEF21-B2EB-4039-9051-27CE66A8F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3300" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11736" yWindow="4740" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ch1" sheetId="1" r:id="rId1"/>
+    <sheet name="enum" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>int</t>
   </si>
@@ -350,6 +350,134 @@
   </si>
   <si>
     <t>내자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 몬스터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입 - 전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입 - 주술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입 - 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 페이즈 전환 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 스킬 패턴 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase_condition</t>
+  </si>
+  <si>
+    <t>pattern_type</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>페이즈 안넘김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 조건 -value로 기준 체력(%) 값 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip_condition</t>
+  </si>
+  <si>
+    <t>#전투 관련 - 스킬 스킵 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킵 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 효과 태그(대분류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_tag</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>debuff</t>
+  </si>
+  <si>
+    <t>드로우 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,24 +920,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="3"/>
+    <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -826,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -841,7 +969,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -856,7 +984,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -865,7 +993,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -873,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C38" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C58" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -883,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -892,7 +1020,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -910,7 +1038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -928,579 +1056,894 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DAMAGE</v>
+        <v>MONSTER_TYPE_WARRIOR</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_HEAL</v>
+        <v>MONSTER_TYPE_SHAMAN</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_SKILL_DAMAGE</v>
+        <v>MONSTER_TYPE_TANKER</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PHASE_CONDITION_NONE</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PHASE_CONDITION_HP_CONDITION</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PATTERN_TYPE_RANDOM</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PATTERN_TYPE_SEQUENTIAL</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" ref="C20:C28" si="1">UPPER(A20)&amp;"_"&amp;UPPER(B20)</f>
+        <v>SKIP_CONDITION_NONE</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>SKIP_CONDITION_HP_CONDITION</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EFFECT_TAG_DAMAGE</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EFFECT_TAG_HEAL</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EFFECT_TAG_DRAW</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EFFECT_TAG_ARMOR</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EFFECT_TAG_BUFF</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>EFFECT_TAG_DEBUFF</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DAMAGE</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_HEAL</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DOT_SKILL_DAMAGE</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DOT_HEAL</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DRAW</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_ARMOR</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D35" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_ARMOR_DOWN</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D36" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DEBUFF_DISPEL</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D37" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_BUFF_DISPEL</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D38" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_AP_UP</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D39" s="3">
         <v>9</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_AP_STOP</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D40" s="3">
         <v>10</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_ACTION_CANCEL</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D41" s="3">
         <v>11</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_FUSION_LEVEL_UP</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D42" s="3">
         <v>12</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_STUN</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D43" s="3">
         <v>13</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_REFLECT_DAMAGE</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D44" s="3">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_REFLECT_DAMAGE_PER</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D45" s="3">
         <v>15</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DAMAGE_INVINCIBLE</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D46" s="3">
         <v>16</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_AVOID_UP</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D47" s="3">
         <v>17</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_AVOID_DOWN</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D48" s="3">
         <v>18</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_ALL_UP_PER</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D49" s="3">
         <v>19</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_ALL_DOWN_PER</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D50" s="3">
         <v>20</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DOT_DRAW</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D51" s="3">
         <v>21</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DEBUFF_ACCURACY_UP</v>
       </c>
-      <c r="D32" s="3">
-        <v>22</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D52" s="3">
+        <v>22</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DEBUFF_ACCURACY_DOWN</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D53" s="3">
         <v>23</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DEBUFF_RESISTANCE_UP</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D54" s="3">
         <v>24</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DEBUFF_RESISTANCE_DOWN</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D55" s="3">
         <v>25</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DAMAGE_SPREAD</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D56" s="3">
         <v>26</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_PROVOKE</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D57" s="3">
         <v>27</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_COUNTER</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D58" s="3">
         <v>28</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" ref="C40" si="1">UPPER(A40)&amp;"_"&amp;UPPER(B40)</f>
+      <c r="C60" s="1" t="str">
+        <f t="shared" ref="C60" si="2">UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
         <v>TARGET_TYPE_ALLY</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D60" s="3">
         <v>0</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" ref="C41" si="2">UPPER(A41)&amp;"_"&amp;UPPER(B41)</f>
+      <c r="C61" s="1" t="str">
+        <f t="shared" ref="C61" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
         <v>TARGET_TYPE_ENEMY</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>85</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DEF21-B2EB-4039-9051-27CE66A8F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DD764-3DC2-4C50-8926-49C2E3499C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11736" yWindow="4740" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11730" yWindow="4740" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>int</t>
   </si>
@@ -341,18 +330,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ally</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#전투 관련 - 몬스터 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,6 +459,30 @@
   </si>
   <si>
     <t>대미지류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_hp_lowest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_hp_highest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 높은 아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 낮은 아군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,9 +629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +669,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,24 +925,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="3"/>
+    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -954,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -969,7 +974,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -984,7 +989,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -993,7 +998,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1025,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1056,21 +1061,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1080,15 +1085,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1098,15 +1103,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1116,24 +1121,24 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1143,15 +1148,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1161,24 +1166,24 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1188,15 +1193,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1206,24 +1211,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ref="C20:C28" si="1">UPPER(A20)&amp;"_"&amp;UPPER(B20)</f>
@@ -1233,15 +1238,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1251,24 +1256,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1278,12 +1283,12 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
@@ -1296,12 +1301,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -1314,12 +1319,12 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1332,15 +1337,15 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1350,15 +1355,15 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1368,10 +1373,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1385,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +1439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1493,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -1686,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1740,7 +1745,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>22</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>22</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>22</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>82</v>
       </c>
@@ -1911,25 +1916,25 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" ref="C60" si="2">UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
-        <v>TARGET_TYPE_ALLY</v>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
@@ -1937,14 +1942,50 @@
         <v>83</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" ref="C61" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
+        <f t="shared" ref="C61:C62" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
         <v>TARGET_TYPE_ENEMY</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" ref="C63" si="4">UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DD764-3DC2-4C50-8926-49C2E3499C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F27BBB-6729-4AC9-B3F8-030E6433FE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="4740" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8652" yWindow="10176" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>int</t>
   </si>
@@ -36,454 +47,498 @@
     <t>group_name</t>
   </si>
   <si>
+    <t>source_enum_name</t>
+  </si>
+  <si>
+    <t>enum_value</t>
+  </si>
+  <si>
+    <t>#설명</t>
+  </si>
+  <si>
+    <t>Enum 그룹명</t>
+  </si>
+  <si>
+    <t>Enum 명</t>
+  </si>
+  <si>
+    <t>코드용 enum 취합</t>
+  </si>
+  <si>
+    <t>인덱스</t>
+  </si>
+  <si>
+    <t>language_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#세팅 관련 - 언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 액터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어블 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 효과 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>dot_skill_damage</t>
+  </si>
+  <si>
+    <t>dot_heal</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t>ap_up</t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t>fusion_level_up</t>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflect_damage</t>
+  </si>
+  <si>
+    <t>reflect_damage_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_invincible</t>
+  </si>
+  <si>
+    <t>avoid_up</t>
+  </si>
+  <si>
+    <t>avoid_down</t>
+  </si>
+  <si>
+    <t>all_up_per</t>
+  </si>
+  <si>
+    <t>all_down_per</t>
+  </si>
+  <si>
+    <t>dot_draw</t>
+  </si>
+  <si>
+    <t>damage_spread</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>반격 (피격 시 피해를 준 대상에게 자신 공격력 비례 피해, value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 가함 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (value_1 = 회복 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속 (원소 획득, value_1 = 드로우 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 증가 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 감소 (value_1 = 증감 확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사_비율 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사 (value_1 = 대미지 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 레벨업 (value_1 = 레벨업 수치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 감소 (value_1 = 증감량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 해제 (value_1 = 해제 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (value_1 = 방어도 증감값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 확산 (value_1 = 피해량 반영 비율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발  (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화 (value_1 = 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 타겟 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 몬스터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입 - 전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입 - 주술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입 - 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 페이즈 전환 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 스킬 패턴 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase_condition</t>
+  </si>
+  <si>
+    <t>pattern_type</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>페이즈 안넘김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 조건 -value로 기준 체력(%) 값 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip_condition</t>
+  </si>
+  <si>
+    <t>#전투 관련 - 스킬 스킵 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킵 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 효과 태그(대분류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_tag</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>debuff</t>
+  </si>
+  <si>
+    <t>드로우 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_hp_lowest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_hp_highest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 높은 아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 낮은 아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enum_name</t>
-  </si>
-  <si>
-    <t>source_enum_name</t>
-  </si>
-  <si>
-    <t>enum_value</t>
-  </si>
-  <si>
-    <t>#설명</t>
-  </si>
-  <si>
-    <t>Enum 그룹명</t>
-  </si>
-  <si>
-    <t>Enum 명</t>
-  </si>
-  <si>
-    <t>코드용 enum 취합</t>
-  </si>
-  <si>
-    <t>인덱스</t>
-  </si>
-  <si>
-    <t>language_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#세팅 관련 - 언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 액터 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어블 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 효과 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-  </si>
-  <si>
-    <t>dot_skill_damage</t>
-  </si>
-  <si>
-    <t>dot_heal</t>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>armor_down</t>
-  </si>
-  <si>
-    <t>debuff_dispel</t>
-  </si>
-  <si>
-    <t>buff_dispel</t>
-  </si>
-  <si>
-    <t>ap_up</t>
-  </si>
-  <si>
-    <t>ap_stop</t>
-  </si>
-  <si>
-    <t>action_cancel</t>
-  </si>
-  <si>
-    <t>fusion_level_up</t>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reflect_damage</t>
-  </si>
-  <si>
-    <t>reflect_damage_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_invincible</t>
-  </si>
-  <si>
-    <t>avoid_up</t>
-  </si>
-  <si>
-    <t>avoid_down</t>
-  </si>
-  <si>
-    <t>all_up_per</t>
-  </si>
-  <si>
-    <t>all_down_per</t>
-  </si>
-  <si>
-    <t>dot_draw</t>
-  </si>
-  <si>
-    <t>damage_spread</t>
-  </si>
-  <si>
-    <t>provoke</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>반격 (피격 시 피해를 준 대상에게 자신 공격력 비례 피해, value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 가함 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과 (value_1 = 회복 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과_지속 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속 (value_1 = 회복 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우 (원소 획득, value_1 = 드로우 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우_지속 (원소 획득, value_1 = 드로우 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_accuracy_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_accuracy_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_resistance_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_resistance_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 적중률 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 적중률 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사_비율 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합 레벨업 (value_1 = 레벨업 수치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동 무효화 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 증가 (value_1 = 증감량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 감소 (value_1 = 증감량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 해제 (value_1 = 해제 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 해제 (value_1 = 해제 수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 감소 (value_1 = 방어도 증감값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (value_1 = 방어도 증감값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 확산 (value_1 = 피해량 반영 비율)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도발  (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 무효화 (value_1 = 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 타겟 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 몬스터 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 타입 - 전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 타입 - 주술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 타입 - 탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 페이즈 전환 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 스킬 패턴 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phase_condition</t>
-  </si>
-  <si>
-    <t>pattern_type</t>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequential</t>
-  </si>
-  <si>
-    <t>페이즈 안넘김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 조건 -value로 기준 체력(%) 값 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순차 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip_condition</t>
-  </si>
-  <si>
-    <t>#전투 관련 - 스킬 스킵 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킵 안함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 효과 태그(대분류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_tag</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>buff</t>
-  </si>
-  <si>
-    <t>debuff</t>
-  </si>
-  <si>
-    <t>드로우 관련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally_hp_lowest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally_hp_highest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 가장 높은 아군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 가장 낮은 아군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#맵 관련 - 맵 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_elite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 전투 맵</t>
+  </si>
+  <si>
+    <t>엘리트 전투 맵</t>
+  </si>
+  <si>
+    <t>보스 전투 맵</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>강화</t>
   </si>
 </sst>
 </file>
@@ -629,9 +684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +724,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -775,7 +830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,56 +980,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="3"/>
+    <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -989,21 +1044,21 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ref="C5:C58" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
@@ -1013,24 +1068,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1040,15 +1095,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1058,24 +1113,24 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1085,15 +1140,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1103,15 +1158,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1121,24 +1176,24 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1148,15 +1203,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1166,24 +1221,24 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1193,15 +1248,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1211,24 +1266,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ref="C20:C28" si="1">UPPER(A20)&amp;"_"&amp;UPPER(B20)</f>
@@ -1238,15 +1293,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1256,24 +1311,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1283,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1301,15 +1356,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1319,15 +1374,15 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1337,15 +1392,15 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1355,15 +1410,15 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1373,24 +1428,24 @@
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1400,15 +1455,15 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1418,15 +1473,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1436,15 +1491,15 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1454,15 +1509,15 @@
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1472,15 +1527,15 @@
         <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1490,15 +1545,15 @@
         <v>5</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1508,15 +1563,15 @@
         <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1526,15 +1581,15 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1544,15 +1599,15 @@
         <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1562,15 +1617,15 @@
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1580,15 +1635,15 @@
         <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1598,15 +1653,15 @@
         <v>11</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1616,15 +1671,15 @@
         <v>12</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1634,15 +1689,15 @@
         <v>13</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1652,15 +1707,15 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1670,15 +1725,15 @@
         <v>15</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1688,15 +1743,15 @@
         <v>16</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1706,15 +1761,15 @@
         <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1724,15 +1779,15 @@
         <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1742,15 +1797,15 @@
         <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1760,15 +1815,15 @@
         <v>20</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1778,15 +1833,15 @@
         <v>21</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1796,15 +1851,15 @@
         <v>22</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1814,15 +1869,15 @@
         <v>23</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1832,15 +1887,15 @@
         <v>24</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1850,15 +1905,15 @@
         <v>25</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1868,15 +1923,15 @@
         <v>26</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1886,15 +1941,15 @@
         <v>27</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1904,24 +1959,24 @@
         <v>28</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" ref="C60" si="2">UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
@@ -1931,15 +1986,15 @@
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" ref="C61:C62" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
@@ -1949,15 +2004,15 @@
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1967,15 +2022,15 @@
         <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" ref="C63" si="4">UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
@@ -1985,7 +2040,106 @@
         <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" ref="C65:C69" si="5">UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MAP_TYPE_SHOP</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MAP_TYPE_ENHANCE</v>
+      </c>
+      <c r="D69" s="3">
+        <v>4</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F27BBB-6729-4AC9-B3F8-030E6433FE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25909AC6-CC72-4D02-881F-12D919F11FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8652" yWindow="10176" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10596" yWindow="3024" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
   <si>
     <t>int</t>
   </si>
@@ -539,6 +539,39 @@
   </si>
   <si>
     <t>강화</t>
+  </si>
+  <si>
+    <t>support_module_effect</t>
+  </si>
+  <si>
+    <t>reduce_product_ap</t>
+  </si>
+  <si>
+    <t>increase_product_ap</t>
+  </si>
+  <si>
+    <t>reduce_product_value</t>
+  </si>
+  <si>
+    <t>increase_product_value</t>
+  </si>
+  <si>
+    <t>change_product_spell</t>
+  </si>
+  <si>
+    <t>생산텀 감소(input = 줄일 AP값)</t>
+  </si>
+  <si>
+    <t>생산텀 증가(input = 증가할 AP값)</t>
+  </si>
+  <si>
+    <t>생산량 감소(input = 감소할 수량)</t>
+  </si>
+  <si>
+    <t>생산량 증가(input = 증가할 수량)</t>
+  </si>
+  <si>
+    <t>생산 spell_id 변경(input = 변경할 대상 spell_id)</t>
   </si>
 </sst>
 </file>
@@ -980,18 +1013,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
     <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="3"/>
@@ -1061,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C58" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C64" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -1964,7 +1997,7 @@
     </row>
     <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1973,172 +2006,271 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" ref="C60" si="2">UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
-        <v>TARGET_TYPE_SELF</v>
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" ref="C61:C62" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
-        <v>TARGET_TYPE_ENEMY</v>
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" ref="C66" si="2">UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
+        <v>TARGET_TYPE_SELF</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" ref="C67:C68" si="3">UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
+        <v>TARGET_TYPE_ENEMY</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="1" t="str">
+      <c r="C68" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D68" s="3">
         <v>2</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" ref="C63" si="4">UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
+      <c r="C69" s="1" t="str">
+        <f t="shared" ref="C69" si="4">UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
         <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" ref="C65:C69" si="5">UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
+      <c r="C71" s="1" t="str">
+        <f t="shared" ref="C71:C75" si="5">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
         <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D71" s="3">
         <v>0</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="1" t="str">
+      <c r="C72" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D72" s="3">
         <v>1</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="1" t="str">
+      <c r="C73" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D73" s="3">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MAP_TYPE_SHOP</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D74" s="3">
         <v>3</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>MAP_TYPE_ENHANCE</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D75" s="3">
         <v>4</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>136</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25909AC6-CC72-4D02-881F-12D919F11FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86549659-8D25-46C6-B2EC-A69E8AED8D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="3024" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="19224" yWindow="5904" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
   <si>
     <t>int</t>
   </si>
@@ -572,6 +572,62 @@
   </si>
   <si>
     <t>생산 spell_id 변경(input = 변경할 대상 spell_id)</t>
+  </si>
+  <si>
+    <t>#아이템 관련 - 보상 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_type</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>보상 타입 - 아이템</t>
+  </si>
+  <si>
+    <t>spell_source</t>
+  </si>
+  <si>
+    <t>보상 타입 - 근원</t>
+  </si>
+  <si>
+    <t>support_module</t>
+  </si>
+  <si>
+    <t>보상 타입 - 서포트 모듈</t>
+  </si>
+  <si>
+    <t>#아이템 관련 - 보상 포함 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_type</t>
+  </si>
+  <si>
+    <t>own_spell_source</t>
+  </si>
+  <si>
+    <t>특정 근원을 보유한 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>no_spell_source</t>
+  </si>
+  <si>
+    <t>특정 근원을 미보유한 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>clear_map</t>
+  </si>
+  <si>
+    <t>특정 맵을 클리어한 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>not_clear_map</t>
+  </si>
+  <si>
+    <t>특정 맵을 클리어하지 않은 상태인 경우 보상 풀에 포함</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2274,6 +2330,150 @@
         <v>136</v>
       </c>
     </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" ref="C77:C84" si="6">UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
+        <v>REWARD_TYPE_ITEM</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86549659-8D25-46C6-B2EC-A69E8AED8D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA7200-B37E-4660-B620-6422F92D204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19224" yWindow="5904" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="13956" yWindow="4980" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
   <si>
     <t>int</t>
   </si>
@@ -628,6 +628,91 @@
   </si>
   <si>
     <t>특정 맵을 클리어하지 않은 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>#전투 관련 - 어플리케이션 / 발동 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 어플리케이션 / 발동 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_condition</t>
+  </si>
+  <si>
+    <t>relic_effect</t>
+  </si>
+  <si>
+    <t>#기타 - 조건 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical_operator</t>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 종료 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_minus_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 수치만큼 체력 없을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 특정 비율일 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1069,11 +1154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2233,7 +2318,7 @@
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2242,236 +2327,407 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f t="shared" ref="C71:C75" si="5">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
+        <f t="shared" ref="C71:C74" si="5">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>MAP_TYPE_SHOP</v>
+        <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MAP_TYPE_ENHANCE</v>
-      </c>
-      <c r="D75" s="3">
-        <v>4</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" ref="C76:C77" si="6">UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
+        <v>RELIC_EFFECT_HEAL</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f t="shared" ref="C77:C84" si="6">UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
-        <v>REWARD_TYPE_ITEM</v>
+        <f t="shared" si="6"/>
+        <v>RELIC_EFFECT_ARMOR</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <f t="shared" ref="C79:C83" si="7">UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D79" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+        <f t="shared" si="7"/>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <f t="shared" si="7"/>
+        <v>MAP_TYPE_SHOP</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MAP_TYPE_ENHANCE</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" ref="C85:C95" si="8">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
+        <v>REWARD_TYPE_ITEM</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B89" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_CLEAR_MAP</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D91" s="3">
         <v>2</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D92" s="3">
         <v>3</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>LOGICAL_OPERATOR_OR</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA7200-B37E-4660-B620-6422F92D204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82638A-3353-4AA6-B100-FF632BF29B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13956" yWindow="4980" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="196">
   <si>
     <t>int</t>
   </si>
@@ -712,6 +712,38 @@
   </si>
   <si>
     <t>체력이 특정 비율일 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템 관련 - 희귀도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀도 - 노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀도 - 희귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀도 - 특별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,11 +1186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="3" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2558,7 +2590,7 @@
         <v>150</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" ref="C85:C95" si="8">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
+        <f t="shared" ref="C85:C99" si="8">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
         <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D85" s="3">
@@ -2687,7 +2719,7 @@
     </row>
     <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2696,37 +2728,100 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>LOGICAL_OPERATOR_AND</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>LOGICAL_OPERATOR_OR</v>
+        <v>RARITY_RARE</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>RARITY_EPIC</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>LOGICAL_OPERATOR_OR</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>175</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82638A-3353-4AA6-B100-FF632BF29B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76142320-21BE-4BEC-9397-8C6FAAEC03C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="18072" yWindow="5916" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
   <si>
     <t>int</t>
   </si>
@@ -744,6 +744,22 @@
   </si>
   <si>
     <t>희귀도 - 특별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic_effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 타입 - 재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2377,7 +2393,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>177</v>
@@ -2440,7 +2456,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>178</v>
@@ -2590,7 +2606,7 @@
         <v>150</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" ref="C85:C99" si="8">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
+        <f t="shared" ref="C85:C100" si="8">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
         <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D85" s="3">
@@ -2636,49 +2652,49 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>REWARD_TYPE_MONEY</v>
+      </c>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2686,17 +2702,17 @@
         <v>157</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2704,62 +2720,62 @@
         <v>157</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>3</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>RARITY_RARE</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2767,61 +2783,79 @@
         <v>189</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>RARITY_RARE</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D97" s="3">
         <v>2</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>LOGICAL_OPERATOR_AND</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D100" s="3">
         <v>1</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>175</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76142320-21BE-4BEC-9397-8C6FAAEC03C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203E606-C04E-4E51-83B3-B562F9D263F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18072" yWindow="5916" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="202">
   <si>
     <t>int</t>
   </si>
@@ -760,6 +760,14 @@
   </si>
   <si>
     <t>보상 타입 - 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot_amor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 방어도 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,24 +1210,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="3"/>
+    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1259,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1274,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1283,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C64" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C65" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -1293,7 +1301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1310,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -1347,7 +1355,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>92</v>
       </c>
@@ -1410,7 +1418,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>94</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
@@ -1455,7 +1463,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>105</v>
       </c>
@@ -1500,7 +1508,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>104</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>107</v>
       </c>
@@ -1545,7 +1553,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1670,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1680,7 +1688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1734,7 +1742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -1878,7 +1886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -2022,7 +2030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -2058,7 +2066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +2102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -2184,678 +2192,696 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_DOT_AMOR</v>
+      </c>
+      <c r="D59" s="3">
+        <v>29</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
       </c>
       <c r="D63" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="1" t="str">
+      <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="3">
         <v>4</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66" si="2">UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
-        <v>TARGET_TYPE_SELF</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C68" si="3">UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
-        <v>TARGET_TYPE_ENEMY</v>
+        <f t="shared" ref="C67" si="2">UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" ref="C68:C69" si="3">UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
+        <v>TARGET_TYPE_ENEMY</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C69" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" ref="C69" si="4">UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
+      <c r="C70" s="1" t="str">
+        <f t="shared" ref="C70" si="4">UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
         <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" ref="C71:C74" si="5">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
+      <c r="C72" s="1" t="str">
+        <f t="shared" ref="C72:C75" si="5">UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
         <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C73" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>1</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D75" s="3">
         <v>3</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" ref="C76:C77" si="6">UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
+      <c r="C77" s="1" t="str">
+        <f t="shared" ref="C77:C78" si="6">UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
         <v>RELIC_EFFECT_HEAL</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>0</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>RELIC_EFFECT_ARMOR</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="3">
         <v>1</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" ref="C79:C83" si="7">UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" ref="C80:C84" si="7">UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="1" t="str">
+      <c r="C81" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="3">
         <v>1</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="1" t="str">
+      <c r="C82" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D82" s="3">
         <v>2</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="1" t="str">
+      <c r="C83" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_SHOP</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>3</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="1" t="str">
+      <c r="C84" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_ENHANCE</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D84" s="3">
         <v>4</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" ref="C85:C100" si="8">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
-        <v>REWARD_TYPE_ITEM</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" ref="C86:C101" si="8">UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
+        <v>REWARD_TYPE_ITEM</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="1" t="str">
+      <c r="C87" s="1" t="str">
         <f t="shared" si="8"/>
         <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>1</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="1" t="str">
+      <c r="C88" s="1" t="str">
         <f t="shared" si="8"/>
         <v>REWARD_TYPE_SUPPORT_MODULE</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="3">
         <v>2</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="1" t="str">
+      <c r="C89" s="1" t="str">
         <f t="shared" si="8"/>
         <v>REWARD_TYPE_MONEY</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D89" s="3">
         <v>3</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="1" t="str">
+      <c r="C91" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="1" t="str">
+      <c r="C92" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D92" s="3">
         <v>1</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="1" t="str">
+      <c r="C93" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_CLEAR_MAP</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>2</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="1" t="str">
+      <c r="C94" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D94" s="3">
         <v>3</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="1" t="str">
+      <c r="C96" s="1" t="str">
         <f t="shared" si="8"/>
         <v>RARITY_NORMAL</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D96" s="3">
         <v>0</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="1" t="str">
+      <c r="C97" s="1" t="str">
         <f t="shared" si="8"/>
         <v>RARITY_RARE</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D97" s="3">
         <v>1</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="1" t="str">
+      <c r="C98" s="1" t="str">
         <f t="shared" si="8"/>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D98" s="3">
         <v>2</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="1" t="str">
+      <c r="C100" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LOGICAL_OPERATOR_AND</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="1" t="str">
+      <c r="C101" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D101" s="3">
         <v>1</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>175</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203E606-C04E-4E51-83B3-B562F9D263F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7250D12B-CB09-4793-9ACF-1E042C930405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="204">
   <si>
     <t>int</t>
   </si>
@@ -768,6 +768,14 @@
   </si>
   <si>
     <t>지속 방어도 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2388,7 @@
         <v>119</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f t="shared" ref="C70" si="4">UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
+        <f t="shared" ref="C70:C71" si="4">UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
         <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
       </c>
       <c r="D70" s="3">
@@ -2390,67 +2398,67 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
+      </c>
+      <c r="D71" s="3">
+        <v>4</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <f t="shared" ref="C72:C75" si="5">UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" ref="C73:C76" si="5">UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="3">
         <v>1</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
-      </c>
-      <c r="D74" s="3">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2458,107 +2466,107 @@
         <v>168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D76" s="3">
         <v>3</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" ref="C77:C78" si="6">UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
-        <v>RELIC_EFFECT_HEAL</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" ref="C78:C79" si="6">UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
+        <v>RELIC_EFFECT_HEAL</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="1" t="str">
+      <c r="C79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>RELIC_EFFECT_ARMOR</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <v>1</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" ref="C80:C84" si="7">UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <f t="shared" ref="C81:C85" si="7">UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2566,17 +2574,17 @@
         <v>126</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D82" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,17 +2592,17 @@
         <v>126</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>MAP_TYPE_SHOP</v>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2602,62 +2610,62 @@
         <v>126</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="7"/>
+        <v>MAP_TYPE_SHOP</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>MAP_TYPE_ENHANCE</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>4</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" ref="C86:C101" si="8">UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
-        <v>REWARD_TYPE_ITEM</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
+        <f t="shared" ref="C87:C102" si="8">UPPER(A87)&amp;"_"&amp;UPPER(B87)</f>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2665,17 +2673,17 @@
         <v>149</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
       <c r="D88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2683,62 +2691,62 @@
         <v>149</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>REWARD_TYPE_MONEY</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D90" s="3">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,17 +2754,17 @@
         <v>157</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2764,62 +2772,62 @@
         <v>157</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D95" s="3">
         <v>3</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>RARITY_RARE</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2827,61 +2835,79 @@
         <v>189</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C98" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>RARITY_RARE</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D99" s="3">
         <v>2</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>LOGICAL_OPERATOR_AND</v>
-      </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="8"/>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D102" s="3">
         <v>1</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>175</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7250D12B-CB09-4793-9ACF-1E042C930405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15877A-995B-46D9-9CF8-21FE8FE6BEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="23340" yWindow="5820" windowWidth="20376" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
   <si>
     <t>int</t>
   </si>
@@ -777,6 +777,130 @@
   <si>
     <t>적 전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC(장식용 액터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#다이얼로그 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#버튼 기능 - 다이얼로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog_type</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>다이얼로그 제목</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>다이얼로그 본문</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>버튼</t>
+  </si>
+  <si>
+    <t>button_function</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>보상 지급</t>
+  </si>
+  <si>
+    <t>select_reward</t>
+  </si>
+  <si>
+    <t>선택형 보상 지급</t>
+  </si>
+  <si>
+    <t>delete_source</t>
+  </si>
+  <si>
+    <t>근원 삭제</t>
+  </si>
+  <si>
+    <t>delete_support_module</t>
+  </si>
+  <si>
+    <t>서포트 모듈 삭제</t>
+  </si>
+  <si>
+    <t>delete_relic</t>
+  </si>
+  <si>
+    <t>어플리케이션 삭제</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>상점 기능 호출</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>강화 기능 호출</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>교환 기능 호출</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>맵 나가기</t>
+  </si>
+  <si>
+    <t>#아이템 타입 - 보상용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>근원</t>
+  </si>
+  <si>
+    <t>서포트 모듈</t>
+  </si>
+  <si>
+    <t>relic</t>
+  </si>
+  <si>
+    <t>어플리케이션</t>
   </si>
 </sst>
 </file>
@@ -1218,24 +1342,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="3"/>
+    <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1252,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1391,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1406,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1415,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C65" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C66" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -1309,7 +1433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1442,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +1460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1354,1561 +1478,1894 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ACTOR_TYPE_NPC</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MONSTER_TYPE_WARRIOR</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MONSTER_TYPE_SHAMAN</v>
+        <v>MONSTER_TYPE_WARRIOR</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MONSTER_TYPE_SHAMAN</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONSTER_TYPE_TANKER</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PHASE_CONDITION_NONE</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PHASE_CONDITION_NONE</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PHASE_CONDITION_HP_CONDITION</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PATTERN_TYPE_RANDOM</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PATTERN_TYPE_RANDOM</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PATTERN_TYPE_SEQUENTIAL</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" ref="C20:C28" si="1">UPPER(A20)&amp;"_"&amp;UPPER(B20)</f>
-        <v>SKIP_CONDITION_NONE</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" ref="C21:C29" si="1">UPPER(A21)&amp;"_"&amp;UPPER(B21)</f>
+        <v>SKIP_CONDITION_NONE</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SKIP_CONDITION_HP_CONDITION</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>EFFECT_TAG_DAMAGE</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>EFFECT_TAG_HEAL</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>EFFECT_TAG_DRAW</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>EFFECT_TAG_ARMOR</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>EFFECT_TAG_BUFF</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>EFFECT_TAG_DEBUFF</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DAMAGE</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_HEAL</v>
+        <v>EFFECT_TYPE_DAMAGE</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_SKILL_DAMAGE</v>
+        <v>EFFECT_TYPE_HEAL</v>
       </c>
       <c r="D32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_HEAL</v>
+        <v>EFFECT_TYPE_DOT_SKILL_DAMAGE</v>
       </c>
       <c r="D33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DRAW</v>
+        <v>EFFECT_TYPE_DOT_HEAL</v>
       </c>
       <c r="D34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ARMOR</v>
+        <v>EFFECT_TYPE_DRAW</v>
       </c>
       <c r="D35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ARMOR_DOWN</v>
+        <v>EFFECT_TYPE_ARMOR</v>
       </c>
       <c r="D36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_DISPEL</v>
+        <v>EFFECT_TYPE_ARMOR_DOWN</v>
       </c>
       <c r="D37" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_BUFF_DISPEL</v>
+        <v>EFFECT_TYPE_DEBUFF_DISPEL</v>
       </c>
       <c r="D38" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_AP_UP</v>
+        <v>EFFECT_TYPE_BUFF_DISPEL</v>
       </c>
       <c r="D39" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_AP_STOP</v>
+        <v>EFFECT_TYPE_AP_UP</v>
       </c>
       <c r="D40" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ACTION_CANCEL</v>
+        <v>EFFECT_TYPE_AP_STOP</v>
       </c>
       <c r="D41" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_FUSION_LEVEL_UP</v>
+        <v>EFFECT_TYPE_ACTION_CANCEL</v>
       </c>
       <c r="D42" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_STUN</v>
+        <v>EFFECT_TYPE_FUSION_LEVEL_UP</v>
       </c>
       <c r="D43" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_REFLECT_DAMAGE</v>
+        <v>EFFECT_TYPE_STUN</v>
       </c>
       <c r="D44" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_REFLECT_DAMAGE_PER</v>
+        <v>EFFECT_TYPE_REFLECT_DAMAGE</v>
       </c>
       <c r="D45" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DAMAGE_INVINCIBLE</v>
+        <v>EFFECT_TYPE_REFLECT_DAMAGE_PER</v>
       </c>
       <c r="D46" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_AVOID_UP</v>
+        <v>EFFECT_TYPE_DAMAGE_INVINCIBLE</v>
       </c>
       <c r="D47" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_AVOID_DOWN</v>
+        <v>EFFECT_TYPE_AVOID_UP</v>
       </c>
       <c r="D48" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ALL_UP_PER</v>
+        <v>EFFECT_TYPE_AVOID_DOWN</v>
       </c>
       <c r="D49" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ALL_DOWN_PER</v>
+        <v>EFFECT_TYPE_ALL_UP_PER</v>
       </c>
       <c r="D50" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_DRAW</v>
+        <v>EFFECT_TYPE_ALL_DOWN_PER</v>
       </c>
       <c r="D51" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>54</v>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_ACCURACY_UP</v>
+        <v>EFFECT_TYPE_DOT_DRAW</v>
       </c>
       <c r="D52" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_ACCURACY_DOWN</v>
+        <v>EFFECT_TYPE_DEBUFF_ACCURACY_UP</v>
       </c>
       <c r="D53" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_UP</v>
+        <v>EFFECT_TYPE_DEBUFF_ACCURACY_DOWN</v>
       </c>
       <c r="D54" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_DOWN</v>
+        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_UP</v>
       </c>
       <c r="D55" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DAMAGE_SPREAD</v>
+        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_DOWN</v>
       </c>
       <c r="D56" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_PROVOKE</v>
+        <v>EFFECT_TYPE_DAMAGE_SPREAD</v>
       </c>
       <c r="D57" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_COUNTER</v>
+        <v>EFFECT_TYPE_PROVOKE</v>
       </c>
       <c r="D58" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EFFECT_TYPE_COUNTER</v>
+      </c>
+      <c r="D59" s="3">
+        <v>28</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EFFECT_TYPE_DOT_AMOR</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="3">
         <v>29</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
       </c>
       <c r="D64" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="1" t="str">
+      <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="3">
         <v>4</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67" si="2">UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
-        <v>TARGET_TYPE_SELF</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" ref="C68:C69" si="3">UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
-        <v>TARGET_TYPE_ENEMY</v>
+        <f t="shared" ref="C68" si="2">UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" ref="C69:C70" si="3">UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
+        <v>TARGET_TYPE_ENEMY</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C70" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="3">
         <v>2</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" ref="C70:C71" si="4">UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
-      </c>
-      <c r="D70" s="3">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" ref="C71:C72" si="4">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>TARGET_TYPE_ENEMY_ALL</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" ref="C73:C76" si="5">UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
+      <c r="C74" s="1" t="str">
+        <f t="shared" ref="C74:C77" si="5">UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
         <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="3">
         <v>0</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D75" s="3">
         <v>1</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C76" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D76" s="3">
         <v>2</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C77" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>3</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" ref="C78:C79" si="6">UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
+      <c r="C79" s="1" t="str">
+        <f t="shared" ref="C79:C80" si="6">UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
         <v>RELIC_EFFECT_HEAL</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <v>0</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="1" t="str">
+      <c r="C80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>RELIC_EFFECT_ARMOR</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="3">
         <v>1</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" ref="C81:C85" si="7">UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" ref="C82:C87" si="7">UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="1" t="str">
+      <c r="C83" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>1</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="1" t="str">
+      <c r="C84" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D84" s="3">
         <v>2</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="1" t="str">
+      <c r="C85" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_SHOP</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>3</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="1" t="str">
+      <c r="C86" s="1" t="str">
         <f t="shared" si="7"/>
         <v>MAP_TYPE_ENHANCE</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D86" s="3">
         <v>4</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MAP_TYPE_SPECIAL</v>
+      </c>
+      <c r="D87" s="3">
+        <v>5</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="1" t="str">
-        <f t="shared" ref="C87:C102" si="8">UPPER(A87)&amp;"_"&amp;UPPER(B87)</f>
+      <c r="C89" s="1" t="str">
+        <f t="shared" ref="C89:C122" si="8">UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
         <v>REWARD_TYPE_ITEM</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D89" s="3">
         <v>0</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="1" t="str">
+      <c r="C90" s="1" t="str">
         <f t="shared" si="8"/>
         <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D90" s="3">
         <v>1</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="1" t="str">
+      <c r="C91" s="1" t="str">
         <f t="shared" si="8"/>
         <v>REWARD_TYPE_SUPPORT_MODULE</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D91" s="3">
         <v>2</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C90" s="1" t="str">
+      <c r="C92" s="1" t="str">
         <f t="shared" si="8"/>
         <v>REWARD_TYPE_MONEY</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D92" s="3">
         <v>3</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="1" t="str">
+      <c r="C94" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="1" t="str">
+      <c r="C95" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D95" s="3">
         <v>1</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="1" t="str">
+      <c r="C96" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_CLEAR_MAP</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D96" s="3">
         <v>2</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="1" t="str">
+      <c r="C97" s="1" t="str">
         <f t="shared" si="8"/>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D97" s="3">
         <v>3</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="1" t="str">
+      <c r="C99" s="1" t="str">
         <f t="shared" si="8"/>
         <v>RARITY_NORMAL</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D99" s="3">
         <v>0</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="1" t="str">
+      <c r="C100" s="1" t="str">
         <f t="shared" si="8"/>
         <v>RARITY_RARE</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D100" s="3">
         <v>1</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="1" t="str">
+      <c r="C101" s="1" t="str">
         <f t="shared" si="8"/>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D101" s="3">
         <v>2</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="1" t="str">
+      <c r="C103" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LOGICAL_OPERATOR_AND</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D103" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="1" t="str">
+      <c r="C104" s="1" t="str">
         <f t="shared" si="8"/>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D104" s="3">
         <v>1</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>DIALOG_TYPE_TITLE</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>DIALOG_TYPE_TEXT</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>DIALOG_TYPE_BUTTON</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_REWARD</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_SHOP</v>
+      </c>
+      <c r="D115" s="3">
+        <v>5</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
+      </c>
+      <c r="D116" s="3">
+        <v>6</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
+      </c>
+      <c r="D117" s="3">
+        <v>7</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>BUTTON_FUNCTION_EXIT</v>
+      </c>
+      <c r="D118" s="3">
+        <v>8</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ITEM_TYPE_SOURCE</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ITEM_TYPE_RELIC</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15877A-995B-46D9-9CF8-21FE8FE6BEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4B13F-EB73-4981-855D-FEDE686A9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23340" yWindow="5820" windowWidth="20376" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11655" yWindow="1455" windowWidth="16215" windowHeight="7755" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="233">
   <si>
     <t>int</t>
   </si>
@@ -160,22 +160,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reflect_damage</t>
-  </si>
-  <si>
-    <t>reflect_damage_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage_invincible</t>
   </si>
   <si>
-    <t>avoid_up</t>
-  </si>
-  <si>
-    <t>avoid_down</t>
-  </si>
-  <si>
     <t>all_up_per</t>
   </si>
   <si>
@@ -185,9 +172,6 @@
     <t>dot_draw</t>
   </si>
   <si>
-    <t>damage_spread</t>
-  </si>
-  <si>
     <t>provoke</t>
   </si>
   <si>
@@ -222,38 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>debuff_accuracy_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_accuracy_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_resistance_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_resistance_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 적중률 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 적중률 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계수 증가 (value_1 = 증감 확률)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,22 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회피율 증가 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 감소 (value_1 = 증감 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사_비율 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사 (value_1 = 대미지 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기절 (value_1 = 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해 확산 (value_1 = 피해량 반영 비율)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도발  (value_1 = 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -901,6 +833,36 @@
   </si>
   <si>
     <t>어플리케이션</t>
+  </si>
+  <si>
+    <t>주는 피해량 증가 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_up_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_down_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 감소 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>주는 피해량 증가 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 감소 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1007,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +990,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1342,29 +1307,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.59765625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="3"/>
+    <col min="5" max="5" width="40.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>3</v>
@@ -1376,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1356,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1371,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1415,7 +1380,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C66" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C52" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -1433,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1407,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1478,12 +1443,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1493,24 +1458,24 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1520,15 +1485,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1538,15 +1503,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1556,24 +1521,24 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1583,15 +1548,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1601,24 +1566,24 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1628,15 +1593,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1646,24 +1611,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ref="C21:C29" si="1">UPPER(A21)&amp;"_"&amp;UPPER(B21)</f>
@@ -1673,15 +1638,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1691,24 +1656,24 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1718,12 +1683,12 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
@@ -1736,12 +1701,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
@@ -1754,12 +1719,12 @@
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -1772,15 +1737,15 @@
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1790,15 +1755,15 @@
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1808,10 +1773,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1785,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1835,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -1853,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1871,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -1889,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
@@ -1907,10 +1872,10 @@
         <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -1925,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
@@ -1943,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1961,10 +1926,10 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -1979,10 +1944,10 @@
         <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -1997,10 +1962,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -2015,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -2033,10 +1998,10 @@
         <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -2051,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -2069,10 +2034,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -2081,16 +2046,16 @@
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_REFLECT_DAMAGE</v>
+        <v>EFFECT_TYPE_DAMAGE_INVINCIBLE</v>
       </c>
       <c r="D45" s="3">
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -2099,16 +2064,16 @@
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_REFLECT_DAMAGE_PER</v>
+        <v>EFFECT_TYPE_ALL_UP_PER</v>
       </c>
       <c r="D46" s="3">
         <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
@@ -2117,16 +2082,16 @@
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DAMAGE_INVINCIBLE</v>
+        <v>EFFECT_TYPE_ALL_DOWN_PER</v>
       </c>
       <c r="D47" s="3">
         <v>16</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2135,1237 +2100,1147 @@
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_AVOID_UP</v>
+        <v>EFFECT_TYPE_DOT_DRAW</v>
       </c>
       <c r="D48" s="3">
         <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_AVOID_DOWN</v>
+        <v>EFFECT_TYPE_PROVOKE</v>
       </c>
       <c r="D49" s="3">
         <v>18</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ALL_UP_PER</v>
+        <v>EFFECT_TYPE_COUNTER</v>
       </c>
       <c r="D50" s="3">
         <v>19</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>42</v>
+      <c r="B51" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_ALL_DOWN_PER</v>
+        <v>EFFECT_TYPE_DOT_AMOR</v>
       </c>
       <c r="D51" s="3">
         <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>43</v>
+      <c r="B52" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_DRAW</v>
+        <v>EFFECT_TYPE_TAKE_DAMAGE_UP_BUFF</v>
       </c>
       <c r="D52" s="3">
         <v>21</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_ACCURACY_UP</v>
+        <f>UPPER(A53)&amp;"_"&amp;UPPER(B53)</f>
+        <v>EFFECT_TYPE_TAKE_DAMAGE_DOWN_BUFF</v>
       </c>
       <c r="D53" s="3">
         <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_ACCURACY_DOWN</v>
+        <f t="shared" ref="C54:C55" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
+        <v>EFFECT_TYPE_GIVE_DAMAGE_UP_BUFF</v>
       </c>
       <c r="D54" s="3">
         <v>23</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_UP</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_GIVE_DAMAGE_DOWN_BUFF</v>
       </c>
       <c r="D55" s="3">
         <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DEBUFF_RESISTANCE_DOWN</v>
-      </c>
-      <c r="D56" s="3">
-        <v>25</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DAMAGE_SPREAD</v>
+        <f>UPPER(A57)&amp;"_"&amp;UPPER(B57)</f>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D57" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_PROVOKE</v>
+        <f>UPPER(A58)&amp;"_"&amp;UPPER(B58)</f>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D58" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_COUNTER</v>
+        <f>UPPER(A59)&amp;"_"&amp;UPPER(B59)</f>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
       </c>
       <c r="D59" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_AMOR</v>
+        <f>UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
       </c>
       <c r="D60" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
-      </c>
-      <c r="D62" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
+        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
+        <v>TARGET_TYPE_SELF</v>
+      </c>
+      <c r="D63" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>UPPER(A64)&amp;"_"&amp;UPPER(B64)</f>
+        <v>TARGET_TYPE_ENEMY</v>
+      </c>
+      <c r="D64" s="3">
         <v>1</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="E64" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
+      </c>
+      <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+      </c>
+      <c r="D66" s="3">
         <v>3</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
+      </c>
+      <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f t="shared" ref="C68" si="2">UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
-        <v>TARGET_TYPE_SELF</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="E67" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
+      </c>
+      <c r="D69" s="3">
         <v>0</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" ref="C69:C70" si="3">UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
-        <v>TARGET_TYPE_ENEMY</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="E69" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
+      </c>
+      <c r="D70" s="3">
         <v>1</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="E70" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+      </c>
+      <c r="D71" s="3">
         <v>2</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" ref="C71:C72" si="4">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="E71" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
+        <v>ACTIVE_CONDITION_HP_PERCENT</v>
+      </c>
+      <c r="D72" s="3">
         <v>3</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>TARGET_TYPE_ENEMY_ALL</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
       <c r="E72" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f t="shared" ref="C74:C77" si="5">UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
+        <f>UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
+        <v>RELIC_EFFECT_HEAL</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
+        <f>UPPER(A75)&amp;"_"&amp;UPPER(B75)</f>
+        <v>RELIC_EFFECT_ARMOR</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
-      </c>
-      <c r="D76" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
+      </c>
+      <c r="D79" s="3">
         <v>2</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ACTIVE_CONDITION_HP_PERCENT</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="E79" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
+        <v>MAP_TYPE_SHOP</v>
+      </c>
+      <c r="D80" s="3">
         <v>3</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" ref="C79:C80" si="6">UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>RELIC_EFFECT_HEAL</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="E80" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
+        <v>MAP_TYPE_ENHANCE</v>
+      </c>
+      <c r="D81" s="3">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
+        <v>MAP_TYPE_SPECIAL</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>UPPER(A84)&amp;"_"&amp;UPPER(B84)</f>
+        <v>REWARD_TYPE_ITEM</v>
+      </c>
+      <c r="D84" s="3">
         <v>0</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>RELIC_EFFECT_ARMOR</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="E84" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
+      </c>
+      <c r="D85" s="3">
         <v>1</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82:C87" si="7">UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
-      </c>
-      <c r="D84" s="3">
-        <v>2</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>MAP_TYPE_SHOP</v>
-      </c>
-      <c r="D85" s="3">
-        <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>MAP_TYPE_ENHANCE</v>
-      </c>
-      <c r="D86" s="3">
-        <v>4</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="B87" s="3" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>MAP_TYPE_SPECIAL</v>
+        <f>UPPER(A87)&amp;"_"&amp;UPPER(B87)</f>
+        <v>REWARD_TYPE_MONEY</v>
       </c>
       <c r="D87" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f t="shared" ref="C89:C122" si="8">UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
-        <v>REWARD_TYPE_ITEM</v>
+        <f>UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
+        <f>UPPER(A90)&amp;"_"&amp;UPPER(B90)</f>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <f>UPPER(A91)&amp;"_"&amp;UPPER(B91)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
       </c>
       <c r="D91" s="3">
         <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>REWARD_TYPE_MONEY</v>
+        <f>UPPER(A92)&amp;"_"&amp;UPPER(B92)</f>
+        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
       <c r="D92" s="3">
         <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+        <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
+        <v>RARITY_RARE</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
+        <v>RARITY_EPIC</v>
       </c>
       <c r="D96" s="3">
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
+        <v>LOGICAL_OPERATOR_OR</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
-      </c>
-      <c r="D97" s="3">
+    </row>
+    <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
+        <v>DIALOG_TYPE_TITLE</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
+        <v>DIALOG_TYPE_TEXT</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
+        <v>DIALOG_TYPE_BUTTON</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D108" s="3">
         <v>3</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D99" s="3">
+      <c r="E108" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+      </c>
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
+        <v>BUTTON_FUNCTION_SHOP</v>
+      </c>
+      <c r="D110" s="3">
+        <v>5</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
+      </c>
+      <c r="D111" s="3">
+        <v>6</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
+      </c>
+      <c r="D112" s="3">
+        <v>7</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
+        <v>BUTTON_FUNCTION_EXIT</v>
+      </c>
+      <c r="D113" s="3">
+        <v>8</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>UPPER(A115)&amp;"_"&amp;UPPER(B115)</f>
+        <v>ITEM_TYPE_SOURCE</v>
+      </c>
+      <c r="D115" s="3">
         <v>0</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>RARITY_RARE</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="E115" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>UPPER(A116)&amp;"_"&amp;UPPER(B116)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D116" s="3">
         <v>1</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C101" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>RARITY_EPIC</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="E116" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>UPPER(A117)&amp;"_"&amp;UPPER(B117)</f>
+        <v>ITEM_TYPE_RELIC</v>
+      </c>
+      <c r="D117" s="3">
         <v>2</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>LOGICAL_OPERATOR_AND</v>
-      </c>
-      <c r="D103" s="3">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>LOGICAL_OPERATOR_OR</v>
-      </c>
-      <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DIALOG_TYPE_TITLE</v>
-      </c>
-      <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DIALOG_TYPE_TEXT</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C108" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DIALOG_TYPE_BUTTON</v>
-      </c>
-      <c r="D108" s="3">
-        <v>2</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C110" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_REWARD</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
-      </c>
-      <c r="D111" s="3">
-        <v>1</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
-      </c>
-      <c r="D112" s="3">
-        <v>2</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C113" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
-      </c>
-      <c r="D113" s="3">
-        <v>3</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C114" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
-      </c>
-      <c r="D114" s="3">
-        <v>4</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_SHOP</v>
-      </c>
-      <c r="D115" s="3">
-        <v>5</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
-      </c>
-      <c r="D116" s="3">
-        <v>6</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
-      </c>
-      <c r="D117" s="3">
-        <v>7</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C118" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>BUTTON_FUNCTION_EXIT</v>
-      </c>
-      <c r="D118" s="3">
-        <v>8</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ITEM_TYPE_SOURCE</v>
-      </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C121" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
-      </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>ITEM_TYPE_RELIC</v>
-      </c>
-      <c r="D122" s="3">
-        <v>2</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4B13F-EB73-4981-855D-FEDE686A9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885E0DA-3518-49D9-BD74-A0449992F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="1455" windowWidth="16215" windowHeight="7755" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="237">
   <si>
     <t>int</t>
   </si>
@@ -862,6 +862,22 @@
   </si>
   <si>
     <t>주는 피해량 감소 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1307,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2207,7 +2223,7 @@
         <v>229</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" ref="C54:C55" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
+        <f t="shared" ref="C54:C57" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
         <v>EFFECT_TYPE_GIVE_DAMAGE_UP_BUFF</v>
       </c>
       <c r="D54" s="3">
@@ -2235,67 +2251,67 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_INVALID_DAMAGE</v>
+      </c>
+      <c r="D56" s="3">
+        <v>25</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>UPPER(A57)&amp;"_"&amp;UPPER(B57)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_IGNORE_DAMAGE</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f>UPPER(A58)&amp;"_"&amp;UPPER(B58)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="str">
         <f>UPPER(A59)&amp;"_"&amp;UPPER(B59)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2303,17 +2319,17 @@
         <v>119</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="str">
         <f>UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2321,80 +2337,80 @@
         <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="1" t="str">
         <f>UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
-        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
       </c>
       <c r="D61" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>UPPER(A62)&amp;"_"&amp;UPPER(B62)</f>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="str">
         <f>UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
-        <v>TARGET_TYPE_SELF</v>
+        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f>UPPER(A64)&amp;"_"&amp;UPPER(B64)</f>
-        <v>TARGET_TYPE_ENEMY</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
-        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2402,17 +2418,17 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+        <v>TARGET_TYPE_ENEMY</v>
       </c>
       <c r="D66" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2420,206 +2436,206 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1" t="str">
         <f>UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
-        <v>TARGET_TYPE_ENEMY_ALL</v>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
       <c r="D67" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f>UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D71" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
-        <v>ACTIVE_CONDITION_HP_PERCENT</v>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
       <c r="D72" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
+        <v>ACTIVE_CONDITION_HP_PERCENT</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
         <v>RELIC_EFFECT_HEAL</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D76" s="3">
         <v>0</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f>UPPER(A75)&amp;"_"&amp;UPPER(B75)</f>
-        <v>RELIC_EFFECT_ARMOR</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
+        <v>RELIC_EFFECT_ARMOR</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D79" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2627,17 +2643,17 @@
         <v>108</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
-        <v>MAP_TYPE_SHOP</v>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2645,17 +2661,17 @@
         <v>108</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
-        <v>MAP_TYPE_ENHANCE</v>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D81" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2663,80 +2679,80 @@
         <v>108</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1" t="str">
         <f>UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
-        <v>MAP_TYPE_SPECIAL</v>
+        <v>MAP_TYPE_SHOP</v>
       </c>
       <c r="D82" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
+        <v>MAP_TYPE_ENHANCE</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="C84" s="1" t="str">
         <f>UPPER(A84)&amp;"_"&amp;UPPER(B84)</f>
-        <v>REWARD_TYPE_ITEM</v>
+        <v>MAP_TYPE_SPECIAL</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f>UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C86" s="1" t="str">
         <f>UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D86" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,80 +2760,80 @@
         <v>131</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C87" s="1" t="str">
         <f>UPPER(A87)&amp;"_"&amp;UPPER(B87)</f>
-        <v>REWARD_TYPE_MONEY</v>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
       <c r="D87" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>UPPER(A88)&amp;"_"&amp;UPPER(B88)</f>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C89" s="1" t="str">
         <f>UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+        <v>REWARD_TYPE_MONEY</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <f>UPPER(A90)&amp;"_"&amp;UPPER(B90)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C91" s="1" t="str">
         <f>UPPER(A91)&amp;"_"&amp;UPPER(B91)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2825,251 +2841,251 @@
         <v>139</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>UPPER(A92)&amp;"_"&amp;UPPER(B92)</f>
-        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D92" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>UPPER(A93)&amp;"_"&amp;UPPER(B93)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
-        <v>RARITY_NORMAL</v>
+        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="1" t="str">
-        <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
-        <v>RARITY_RARE</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
-        <v>RARITY_EPIC</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D96" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
+        <v>RARITY_RARE</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C98" s="1" t="str">
         <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
+        <v>RARITY_EPIC</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
         <v>LOGICAL_OPERATOR_AND</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
-        <v>LOGICAL_OPERATOR_OR</v>
-      </c>
-      <c r="D99" s="3">
-        <v>1</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
-        <v>DIALOG_TYPE_TITLE</v>
+        <v>LOGICAL_OPERATOR_OR</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="1" t="str">
-        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
-        <v>DIALOG_TYPE_TEXT</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C103" s="1" t="str">
         <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
-        <v>DIALOG_TYPE_BUTTON</v>
+        <v>DIALOG_TYPE_TITLE</v>
       </c>
       <c r="D103" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
+        <v>DIALOG_TYPE_TEXT</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
+        <v>DIALOG_TYPE_BUTTON</v>
       </c>
       <c r="D105" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C106" s="1" t="str">
-        <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+        <v>BUTTON_FUNCTION_REWARD</v>
       </c>
       <c r="D107" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3077,17 +3093,17 @@
         <v>199</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
       <c r="D108" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -3095,17 +3111,17 @@
         <v>199</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C109" s="1" t="str">
         <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
       </c>
       <c r="D109" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,17 +3129,17 @@
         <v>199</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C110" s="1" t="str">
         <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
-        <v>BUTTON_FUNCTION_SHOP</v>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
       </c>
       <c r="D110" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -3131,17 +3147,17 @@
         <v>199</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
       <c r="D111" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3149,17 +3165,17 @@
         <v>199</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
+        <v>BUTTON_FUNCTION_SHOP</v>
       </c>
       <c r="D112" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3167,79 +3183,115 @@
         <v>199</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C113" s="1" t="str">
         <f>UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
-        <v>BUTTON_FUNCTION_EXIT</v>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
       </c>
       <c r="D113" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>UPPER(A114)&amp;"_"&amp;UPPER(B114)</f>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C115" s="1" t="str">
         <f>UPPER(A115)&amp;"_"&amp;UPPER(B115)</f>
-        <v>ITEM_TYPE_SOURCE</v>
+        <v>BUTTON_FUNCTION_EXIT</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="1" t="str">
-        <f>UPPER(A116)&amp;"_"&amp;UPPER(B116)</f>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
-      </c>
-      <c r="D116" s="3">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C117" s="1" t="str">
         <f>UPPER(A117)&amp;"_"&amp;UPPER(B117)</f>
+        <v>ITEM_TYPE_SOURCE</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>UPPER(A118)&amp;"_"&amp;UPPER(B118)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>UPPER(A119)&amp;"_"&amp;UPPER(B119)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D119" s="3">
         <v>2</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>224</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885E0DA-3518-49D9-BD74-A0449992F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44610FA-F668-41AE-8027-09CD5FFE3482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="249">
   <si>
     <t>int</t>
   </si>
@@ -878,6 +878,49 @@
   </si>
   <si>
     <t>ignore_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_proportion_given_damage</t>
+  </si>
+  <si>
+    <t>heal_proportion_taken_damage</t>
+  </si>
+  <si>
+    <t>damage_proportion_overheal</t>
+  </si>
+  <si>
+    <t>heal_proportion_given_damage_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_proportion_taken_damage_buff</t>
+  </si>
+  <si>
+    <t>damage_proportion_overheal_buff</t>
+  </si>
+  <si>
+    <t>준 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 회복량 비례 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준 피해량 비례 회복 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 피해량 비례 회복 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 회복량 비례 피해 (%)_버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2223,7 +2266,7 @@
         <v>229</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" ref="C54:C57" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
+        <f t="shared" ref="C54:C63" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
         <v>EFFECT_TYPE_GIVE_DAMAGE_UP_BUFF</v>
       </c>
       <c r="D54" s="3">
@@ -2287,108 +2330,117 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_HEAL_PROPORTION_GIVEN_DAMAGE</v>
+      </c>
+      <c r="D58" s="3">
+        <v>27</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>UPPER(A59)&amp;"_"&amp;UPPER(B59)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_HEAL_PROPORTION_TAKEN_DAMAGE</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>125</v>
+        <v>28</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>UPPER(A60)&amp;"_"&amp;UPPER(B60)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_DAMAGE_PROPORTION_OVERHEAL</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>126</v>
+        <v>29</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_HEAL_PROPORTION_GIVEN_DAMAGE_BUFF</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>127</v>
+        <v>30</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>UPPER(A62)&amp;"_"&amp;UPPER(B62)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_HEAL_PROPORTION_TAKEN_DAMAGE_BUFF</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
-        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
+        <f t="shared" si="2"/>
+        <v>EFFECT_TYPE_DAMAGE_PROPORTION_OVERHEAL_BUFF</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>129</v>
+        <v>32</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2397,97 +2449,97 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
-        <v>TARGET_TYPE_SELF</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
-        <v>TARGET_TYPE_ENEMY</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="str">
         <f>UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
-        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="str">
         <f>UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
-        <v>TARGET_TYPE_ENEMY_ALL</v>
+        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
       </c>
       <c r="D69" s="3">
         <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2496,704 +2548,695 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
+        <v>TARGET_TYPE_ENEMY</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C73" s="1" t="str">
         <f>UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
-        <v>ACTIVE_CONDITION_HP_PERCENT</v>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f>UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
-        <v>RELIC_EFFECT_HEAL</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>UPPER(A75)&amp;"_"&amp;UPPER(B75)</f>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
-        <v>RELIC_EFFECT_ARMOR</v>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
+      </c>
+      <c r="D78" s="3">
         <v>1</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
       </c>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
       <c r="D80" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
-      </c>
-      <c r="D81" s="3">
-        <v>2</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="str">
         <f>UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
-        <v>MAP_TYPE_SHOP</v>
+        <v>RELIC_EFFECT_HEAL</v>
       </c>
       <c r="D82" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1" t="str">
         <f>UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
-        <v>MAP_TYPE_ENHANCE</v>
+        <v>RELIC_EFFECT_ARMOR</v>
       </c>
       <c r="D83" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f>UPPER(A84)&amp;"_"&amp;UPPER(B84)</f>
-        <v>MAP_TYPE_SPECIAL</v>
-      </c>
-      <c r="D84" s="3">
-        <v>5</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="B85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" ref="C85:C90" si="3">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
-        <v>REWARD_TYPE_ITEM</v>
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>UPPER(A87)&amp;"_"&amp;UPPER(B87)</f>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D87" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>UPPER(A88)&amp;"_"&amp;UPPER(B88)</f>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_SHOP</v>
       </c>
       <c r="D88" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
-        <v>REWARD_TYPE_MONEY</v>
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_ENHANCE</v>
       </c>
       <c r="D89" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="1" t="str">
-        <f>UPPER(A91)&amp;"_"&amp;UPPER(B91)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_SPECIAL</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>UPPER(A92)&amp;"_"&amp;UPPER(B92)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C93" s="1" t="str">
         <f>UPPER(A93)&amp;"_"&amp;UPPER(B93)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
       <c r="D93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
-        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
       </c>
       <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
+        <v>REWARD_TYPE_MONEY</v>
+      </c>
+      <c r="D95" s="3">
         <v>3</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="1" t="str">
-        <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="E95" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
-        <v>RARITY_RARE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1" t="str">
         <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
-        <v>RARITY_EPIC</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D99" s="3">
         <v>2</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
-        <v>LOGICAL_OPERATOR_AND</v>
+        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
       <c r="D100" s="3">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
+        <v>RARITY_NORMAL</v>
+      </c>
+      <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="1" t="str">
-        <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
-        <v>LOGICAL_OPERATOR_OR</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C103" s="1" t="str">
         <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
-        <v>DIALOG_TYPE_TITLE</v>
+        <v>RARITY_RARE</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
-        <v>DIALOG_TYPE_TEXT</v>
+        <v>RARITY_EPIC</v>
       </c>
       <c r="D104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C105" s="1" t="str">
-        <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
-        <v>DIALOG_TYPE_BUTTON</v>
-      </c>
-      <c r="D105" s="3">
-        <v>2</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
+        <v>LOGICAL_OPERATOR_OR</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="1" t="str">
-        <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
-      </c>
-      <c r="D108" s="3">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C109" s="1" t="str">
         <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+        <v>DIALOG_TYPE_TITLE</v>
       </c>
       <c r="D109" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C110" s="1" t="str">
         <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+        <v>DIALOG_TYPE_TEXT</v>
       </c>
       <c r="D110" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+        <v>DIALOG_TYPE_BUTTON</v>
       </c>
       <c r="D111" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" s="1" t="str">
-        <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
-        <v>BUTTON_FUNCTION_SHOP</v>
-      </c>
-      <c r="D112" s="3">
-        <v>5</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f>UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
+        <f t="shared" ref="C113:C121" si="4">UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
       </c>
       <c r="D113" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3201,17 +3244,17 @@
         <v>199</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f>UPPER(A114)&amp;"_"&amp;UPPER(B114)</f>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
       <c r="D114" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3219,79 +3262,187 @@
         <v>199</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f>UPPER(A115)&amp;"_"&amp;UPPER(B115)</f>
-        <v>BUTTON_FUNCTION_EXIT</v>
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
       </c>
       <c r="D115" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f>UPPER(A117)&amp;"_"&amp;UPPER(B117)</f>
-        <v>ITEM_TYPE_SOURCE</v>
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
       <c r="D117" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f>UPPER(A118)&amp;"_"&amp;UPPER(B118)</f>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_SHOP</v>
       </c>
       <c r="D118" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
+      </c>
+      <c r="D119" s="3">
+        <v>6</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
+      </c>
+      <c r="D120" s="3">
+        <v>7</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_EXIT</v>
+      </c>
+      <c r="D121" s="3">
+        <v>8</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B123" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>UPPER(A123)&amp;"_"&amp;UPPER(B123)</f>
+        <v>ITEM_TYPE_SOURCE</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>UPPER(A124)&amp;"_"&amp;UPPER(B124)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C119" s="1" t="str">
-        <f>UPPER(A119)&amp;"_"&amp;UPPER(B119)</f>
+      <c r="C125" s="1" t="str">
+        <f>UPPER(A125)&amp;"_"&amp;UPPER(B125)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D125" s="3">
         <v>2</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>224</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44610FA-F668-41AE-8027-09CD5FFE3482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD216E03-1AF1-4276-AFBB-225DBA821988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
   <si>
     <t>int</t>
   </si>
@@ -890,16 +890,6 @@
     <t>damage_proportion_overheal</t>
   </si>
   <si>
-    <t>heal_proportion_given_damage_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal_proportion_taken_damage_buff</t>
-  </si>
-  <si>
-    <t>damage_proportion_overheal_buff</t>
-  </si>
-  <si>
     <t>준 피해량 비례 회복 (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,18 +899,6 @@
   </si>
   <si>
     <t>초과 회복량 비례 피해 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준 피해량 비례 회복 (%)_버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받은 피해량 비례 회복 (%)_버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초과 회복량 비례 피해 (%)_버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,11 +1344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2266,7 +2244,7 @@
         <v>229</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" ref="C54:C63" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
+        <f t="shared" ref="C54:C60" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
         <v>EFFECT_TYPE_GIVE_DAMAGE_UP_BUFF</v>
       </c>
       <c r="D54" s="3">
@@ -2345,7 +2323,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2363,7 +2341,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,88 +2359,88 @@
         <v>29</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>EFFECT_TYPE_HEAL_PROPORTION_GIVEN_DAMAGE_BUFF</v>
-      </c>
-      <c r="D61" s="3">
-        <v>30</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>246</v>
-      </c>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>EFFECT_TYPE_HEAL_PROPORTION_TAKEN_DAMAGE_BUFF</v>
+        <f>UPPER(A62)&amp;"_"&amp;UPPER(B62)</f>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D62" s="3">
-        <v>31</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>247</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>EFFECT_TYPE_DAMAGE_PROPORTION_OVERHEAL_BUFF</v>
+        <f>UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D63" s="3">
-        <v>32</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>UPPER(A64)&amp;"_"&amp;UPPER(B64)</f>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2470,98 +2448,98 @@
         <v>119</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
+        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f>UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C68" s="1" t="str">
         <f>UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D68" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
-        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
+        <v>TARGET_TYPE_ENEMY</v>
       </c>
       <c r="D69" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>TARGET_TYPE_SELF</v>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,157 +2547,148 @@
         <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
-        <v>TARGET_TYPE_ENEMY</v>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
       </c>
       <c r="D72" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <f>UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
-        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>UPPER(A75)&amp;"_"&amp;UPPER(B75)</f>
-        <v>TARGET_TYPE_ENEMY_ALL</v>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
       <c r="D75" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
+        <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+        <v>RELIC_EFFECT_HEAL</v>
       </c>
       <c r="D79" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
-        <v>ACTIVE_CONDITION_HP_PERCENT</v>
+        <v>RELIC_EFFECT_ARMOR</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2728,65 +2697,74 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
-        <v>RELIC_EFFECT_HEAL</v>
+        <f t="shared" ref="C82:C87" si="3">UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
-        <v>RELIC_EFFECT_ARMOR</v>
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" ref="C85:C90" si="3">UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
+        <f t="shared" si="3"/>
+        <v>MAP_TYPE_SHOP</v>
       </c>
       <c r="D85" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2794,17 +2772,17 @@
         <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <v>MAP_TYPE_ENHANCE</v>
       </c>
       <c r="D86" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2812,301 +2790,292 @@
         <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
+        <v>MAP_TYPE_SPECIAL</v>
       </c>
       <c r="D87" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_SHOP</v>
-      </c>
-      <c r="D88" s="3">
-        <v>3</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_ENHANCE</v>
+        <f>UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D89" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_SPECIAL</v>
+        <f>UPPER(A90)&amp;"_"&amp;UPPER(B90)</f>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
       <c r="D90" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>UPPER(A91)&amp;"_"&amp;UPPER(B91)</f>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>UPPER(A92)&amp;"_"&amp;UPPER(B92)</f>
-        <v>REWARD_TYPE_ITEM</v>
+        <v>REWARD_TYPE_MONEY</v>
       </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="1" t="str">
-        <f>UPPER(A93)&amp;"_"&amp;UPPER(B93)</f>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D94" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
-        <v>REWARD_TYPE_MONEY</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D95" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C99" s="1" t="str">
         <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D99" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
-        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
+        <v>RARITY_RARE</v>
       </c>
       <c r="D100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="1" t="str">
-        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="B101" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
+        <v>RARITY_EPIC</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C103" s="1" t="str">
         <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
-        <v>RARITY_RARE</v>
+        <v>LOGICAL_OPERATOR_AND</v>
       </c>
       <c r="D103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
-        <v>RARITY_EPIC</v>
+        <v>LOGICAL_OPERATOR_OR</v>
       </c>
       <c r="D104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3115,128 +3084,137 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C106" s="1" t="str">
         <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
-        <v>LOGICAL_OPERATOR_AND</v>
+        <v>DIALOG_TYPE_TITLE</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
-        <v>LOGICAL_OPERATOR_OR</v>
+        <v>DIALOG_TYPE_TEXT</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C109" s="1" t="str">
-        <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
-        <v>DIALOG_TYPE_TITLE</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="B108" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
+        <v>DIALOG_TYPE_BUTTON</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C110" s="1" t="str">
-        <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
-        <v>DIALOG_TYPE_TEXT</v>
+        <f t="shared" ref="C110:C118" si="4">UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
       </c>
       <c r="D110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
-        <v>DIALOG_TYPE_BUTTON</v>
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
       <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+      </c>
+      <c r="D112" s="3">
         <v>2</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f t="shared" ref="C113:C121" si="4">UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
+        <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
       </c>
       <c r="D113" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3244,17 +3222,17 @@
         <v>199</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
       <c r="D114" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3262,17 +3240,17 @@
         <v>199</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+        <v>BUTTON_FUNCTION_SHOP</v>
       </c>
       <c r="D115" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3280,17 +3258,17 @@
         <v>199</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
       </c>
       <c r="D116" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3298,17 +3276,17 @@
         <v>199</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
       </c>
       <c r="D117" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,133 +3294,79 @@
         <v>199</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_SHOP</v>
+        <v>BUTTON_FUNCTION_EXIT</v>
       </c>
       <c r="D118" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
-      </c>
-      <c r="D119" s="3">
-        <v>6</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
+        <f>UPPER(A120)&amp;"_"&amp;UPPER(B120)</f>
+        <v>ITEM_TYPE_SOURCE</v>
       </c>
       <c r="D120" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_EXIT</v>
+        <f>UPPER(A121)&amp;"_"&amp;UPPER(B121)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
       </c>
       <c r="D121" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C123" s="1" t="str">
-        <f>UPPER(A123)&amp;"_"&amp;UPPER(B123)</f>
-        <v>ITEM_TYPE_SOURCE</v>
-      </c>
-      <c r="D123" s="3">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C124" s="1" t="str">
-        <f>UPPER(A124)&amp;"_"&amp;UPPER(B124)</f>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
-      </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C125" s="1" t="str">
-        <f>UPPER(A125)&amp;"_"&amp;UPPER(B125)</f>
+      <c r="C122" s="1" t="str">
+        <f>UPPER(A122)&amp;"_"&amp;UPPER(B122)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D122" s="3">
         <v>2</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>224</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD216E03-1AF1-4276-AFBB-225DBA821988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64727671-1366-4DD2-9D38-137FD5972F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -835,10 +824,6 @@
     <t>어플리케이션</t>
   </si>
   <si>
-    <t>주는 피해량 증가 (%) 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>take_damage_up_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -899,6 +884,10 @@
   </si>
   <si>
     <t>초과 회복량 비례 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가 (%) 버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,9 +1037,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1088,7 +1077,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1194,7 +1183,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1336,7 +1325,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,8 +1336,8 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2205,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2215,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2223,7 +2212,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>UPPER(A53)&amp;"_"&amp;UPPER(B53)</f>
@@ -2233,7 +2222,7 @@
         <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2241,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" ref="C54:C60" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
@@ -2251,7 +2240,7 @@
         <v>23</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2259,7 +2248,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2269,7 +2258,7 @@
         <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2277,7 +2266,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2287,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,7 +2284,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2305,7 +2294,7 @@
         <v>26</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2313,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2323,7 +2312,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2331,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2341,7 +2330,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2349,7 +2338,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2359,7 +2348,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64727671-1366-4DD2-9D38-137FD5972F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1D85E-AD97-449C-859A-42D455DCBA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="245">
   <si>
     <t>int</t>
   </si>
@@ -888,6 +888,14 @@
   </si>
   <si>
     <t>받는 피해량 증가 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,11 +1341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2549,67 +2557,67 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
+        <v>TARGET_TYPE_ALLY_ALL</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f>UPPER(A74)&amp;"_"&amp;UPPER(B74)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>UPPER(A75)&amp;"_"&amp;UPPER(B75)</f>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C76" s="1" t="str">
         <f>UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
       <c r="D76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,107 +2625,107 @@
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
         <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="3">
         <v>3</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>RELIC_EFFECT_HEAL</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
+        <v>RELIC_EFFECT_HEAL</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
         <v>RELIC_EFFECT_ARMOR</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="3">
         <v>1</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82:C87" si="3">UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <f t="shared" ref="C83:C88" si="3">UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2725,17 +2733,17 @@
         <v>108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2743,17 +2751,17 @@
         <v>108</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MAP_TYPE_SHOP</v>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2761,17 +2769,17 @@
         <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MAP_TYPE_ENHANCE</v>
+        <v>MAP_TYPE_SHOP</v>
       </c>
       <c r="D86" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2779,62 +2787,62 @@
         <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="3"/>
+        <v>MAP_TYPE_ENHANCE</v>
+      </c>
+      <c r="D87" s="3">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>MAP_TYPE_SPECIAL</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="3">
         <v>5</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f>UPPER(A89)&amp;"_"&amp;UPPER(B89)</f>
-        <v>REWARD_TYPE_ITEM</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="str">
         <f>UPPER(A90)&amp;"_"&amp;UPPER(B90)</f>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,17 +2850,17 @@
         <v>131</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" s="1" t="str">
         <f>UPPER(A91)&amp;"_"&amp;UPPER(B91)</f>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2860,62 +2868,62 @@
         <v>131</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>UPPER(A92)&amp;"_"&amp;UPPER(B92)</f>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>UPPER(A93)&amp;"_"&amp;UPPER(B93)</f>
         <v>REWARD_TYPE_MONEY</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>3</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2923,17 +2931,17 @@
         <v>139</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D96" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2941,62 +2949,62 @@
         <v>139</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D98" s="3">
         <v>3</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D99" s="3">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
-        <v>RARITY_RARE</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3004,107 +3012,107 @@
         <v>171</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
+        <v>RARITY_RARE</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D102" s="3">
         <v>2</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="1" t="str">
-        <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
-        <v>LOGICAL_OPERATOR_AND</v>
-      </c>
-      <c r="D103" s="3">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D105" s="3">
         <v>1</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" s="1" t="str">
-        <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
-        <v>DIALOG_TYPE_TITLE</v>
-      </c>
-      <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
-        <v>DIALOG_TYPE_TEXT</v>
+        <v>DIALOG_TYPE_TITLE</v>
       </c>
       <c r="D107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3112,62 +3120,62 @@
         <v>192</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
+        <v>DIALOG_TYPE_TEXT</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
         <v>DIALOG_TYPE_BUTTON</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D109" s="3">
         <v>2</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+    <row r="110" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="1" t="str">
-        <f t="shared" ref="C110:C118" si="4">UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
+        <f t="shared" ref="C111:C119" si="4">UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
       </c>
       <c r="D111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3175,17 +3183,17 @@
         <v>199</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
       <c r="D112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3193,17 +3201,17 @@
         <v>199</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
       </c>
       <c r="D113" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3211,17 +3219,17 @@
         <v>199</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
       </c>
       <c r="D114" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3229,17 +3237,17 @@
         <v>199</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_SHOP</v>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
       <c r="D115" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3247,17 +3255,17 @@
         <v>199</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
+        <v>BUTTON_FUNCTION_SHOP</v>
       </c>
       <c r="D116" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,17 +3273,17 @@
         <v>199</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
       </c>
       <c r="D117" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3283,62 +3291,62 @@
         <v>199</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="4"/>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
+      </c>
+      <c r="D118" s="3">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>BUTTON_FUNCTION_EXIT</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D119" s="3">
         <v>8</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+    <row r="120" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120" s="1" t="str">
-        <f>UPPER(A120)&amp;"_"&amp;UPPER(B120)</f>
-        <v>ITEM_TYPE_SOURCE</v>
-      </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="C121" s="1" t="str">
         <f>UPPER(A121)&amp;"_"&amp;UPPER(B121)</f>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+        <v>ITEM_TYPE_SOURCE</v>
       </c>
       <c r="D121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3346,16 +3354,34 @@
         <v>219</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="C122" s="1" t="str">
         <f>UPPER(A122)&amp;"_"&amp;UPPER(B122)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>UPPER(A123)&amp;"_"&amp;UPPER(B123)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <v>2</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>224</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1D85E-AD97-449C-859A-42D455DCBA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59845051-5F19-4074-A997-BCB2D249CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="251">
   <si>
     <t>int</t>
   </si>
@@ -896,6 +907,30 @@
   </si>
   <si>
     <t>아군 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_down_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력, 피해감소 무시 Damage Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_true_damage_up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,9 +1080,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1085,7 +1120,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1191,7 +1226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1333,7 +1368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1341,11 +1376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2359,85 +2394,85 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" ref="C61:C62" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
+        <v>EFFECT_TYPE_GIVE_DAMAGE_UP_FIXED</v>
+      </c>
+      <c r="D61" s="3">
+        <v>30</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>UPPER(A62)&amp;"_"&amp;UPPER(B62)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
+        <f t="shared" si="3"/>
+        <v>EFFECT_TYPE_GIVE_DAMAGE_DOWN_FIXED</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>125</v>
+        <v>31</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
+        <f t="shared" ref="C63" si="4">UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
+        <v>EFFECT_TYPE_GIVE_TRUE_DAMAGE_UP</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f>UPPER(A64)&amp;"_"&amp;UPPER(B64)</f>
-        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>UPPER(A65)&amp;"_"&amp;UPPER(B65)</f>
-        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_AP</v>
       </c>
       <c r="D65" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2445,98 +2480,98 @@
         <v>119</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>UPPER(A66)&amp;"_"&amp;UPPER(B66)</f>
-        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_AP</v>
       </c>
       <c r="D66" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>UPPER(A67)&amp;"_"&amp;UPPER(B67)</f>
+        <v>SUPPORT_MODULE_EFFECT_REDUCE_PRODUCT_VALUE</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="str">
         <f>UPPER(A68)&amp;"_"&amp;UPPER(B68)</f>
-        <v>TARGET_TYPE_SELF</v>
+        <v>SUPPORT_MODULE_EFFECT_INCREASE_PRODUCT_VALUE</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>UPPER(A69)&amp;"_"&amp;UPPER(B69)</f>
-        <v>TARGET_TYPE_ENEMY</v>
+        <v>SUPPORT_MODULE_EFFECT_CHANGE_PRODUCT_SPELL</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f>UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
-        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+        <f t="shared" ref="C71:C76" si="5">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2544,17 +2579,17 @@
         <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
-        <v>TARGET_TYPE_ENEMY_ALL</v>
+        <f t="shared" si="5"/>
+        <v>TARGET_TYPE_ENEMY</v>
       </c>
       <c r="D72" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2562,148 +2597,157 @@
         <v>62</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>UPPER(A73)&amp;"_"&amp;UPPER(B73)</f>
-        <v>TARGET_TYPE_ALLY_ALL</v>
+        <f t="shared" si="5"/>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
       <c r="D73" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>UPPER(A75)&amp;"_"&amp;UPPER(B75)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
+        <f t="shared" si="5"/>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>UPPER(A76)&amp;"_"&amp;UPPER(B76)</f>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
+        <f t="shared" si="5"/>
+        <v>TARGET_TYPE_ALLY_ALL</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f>UPPER(A77)&amp;"_"&amp;UPPER(B77)</f>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
-      </c>
-      <c r="D77" s="3">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>168</v>
-      </c>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
-        <v>ACTIVE_CONDITION_HP_PERCENT</v>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
-        <v>RELIC_EFFECT_HEAL</v>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
-        <v>RELIC_EFFECT_ARMOR</v>
+        <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2712,74 +2756,65 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" ref="C83:C88" si="3">UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
+        <f>UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
+        <v>RELIC_EFFECT_HEAL</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <f>UPPER(A84)&amp;"_"&amp;UPPER(B84)</f>
+        <v>RELIC_EFFECT_ARMOR</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
-      </c>
-      <c r="D85" s="3">
-        <v>2</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_SHOP</v>
+        <f t="shared" ref="C86:C91" si="6">UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D86" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2787,17 +2822,17 @@
         <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_ENHANCE</v>
+        <f t="shared" si="6"/>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D87" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2805,292 +2840,301 @@
         <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP_TYPE_SPECIAL</v>
+        <f t="shared" si="6"/>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D88" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>MAP_TYPE_SHOP</v>
+      </c>
+      <c r="D89" s="3">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>UPPER(A90)&amp;"_"&amp;UPPER(B90)</f>
-        <v>REWARD_TYPE_ITEM</v>
+        <f t="shared" si="6"/>
+        <v>MAP_TYPE_ENHANCE</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>UPPER(A91)&amp;"_"&amp;UPPER(B91)</f>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
+        <f t="shared" si="6"/>
+        <v>MAP_TYPE_SPECIAL</v>
       </c>
       <c r="D91" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="1" t="str">
-        <f>UPPER(A92)&amp;"_"&amp;UPPER(B92)</f>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
-      </c>
-      <c r="D92" s="3">
-        <v>2</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C93" s="1" t="str">
         <f>UPPER(A93)&amp;"_"&amp;UPPER(B93)</f>
-        <v>REWARD_TYPE_MONEY</v>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D93" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>REWARD_TYPE_MONEY</v>
       </c>
       <c r="D96" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
-      </c>
-      <c r="D97" s="3">
-        <v>2</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C98" s="1" t="str">
         <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
-        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D98" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
-        <v>RARITY_NORMAL</v>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
-        <v>RARITY_RARE</v>
+        <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
       <c r="D101" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="1" t="str">
-        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
-        <v>RARITY_EPIC</v>
-      </c>
-      <c r="D102" s="3">
-        <v>2</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="B103" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
+        <v>RARITY_NORMAL</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
-        <v>LOGICAL_OPERATOR_AND</v>
+        <v>RARITY_RARE</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
-        <v>LOGICAL_OPERATOR_OR</v>
+        <v>RARITY_EPIC</v>
       </c>
       <c r="D105" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3099,137 +3143,128 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
-        <v>DIALOG_TYPE_TITLE</v>
+        <v>LOGICAL_OPERATOR_AND</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
-        <v>DIALOG_TYPE_TEXT</v>
+        <v>LOGICAL_OPERATOR_OR</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C109" s="1" t="str">
-        <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
-        <v>DIALOG_TYPE_BUTTON</v>
-      </c>
-      <c r="D109" s="3">
-        <v>2</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="B110" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
+        <v>DIALOG_TYPE_TITLE</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f t="shared" ref="C111:C119" si="4">UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
+        <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
+        <v>DIALOG_TYPE_TEXT</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C112" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
+        <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
+        <v>DIALOG_TYPE_BUTTON</v>
       </c>
       <c r="D112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C113" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
-      </c>
-      <c r="D113" s="3">
-        <v>2</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+        <f t="shared" ref="C114:C122" si="7">UPPER(A114)&amp;"_"&amp;UPPER(B114)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
       </c>
       <c r="D114" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,17 +3272,17 @@
         <v>199</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
       <c r="D115" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,17 +3290,17 @@
         <v>199</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_SHOP</v>
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
       </c>
       <c r="D116" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3273,17 +3308,17 @@
         <v>199</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
       </c>
       <c r="D117" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3291,17 +3326,17 @@
         <v>199</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
       <c r="D118" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3309,79 +3344,133 @@
         <v>199</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BUTTON_FUNCTION_EXIT</v>
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_SHOP</v>
       </c>
       <c r="D119" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
+      </c>
+      <c r="D120" s="3">
+        <v>6</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f>UPPER(A121)&amp;"_"&amp;UPPER(B121)</f>
-        <v>ITEM_TYPE_SOURCE</v>
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_EXIT</v>
+      </c>
+      <c r="D122" s="3">
+        <v>8</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B124" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>UPPER(A124)&amp;"_"&amp;UPPER(B124)</f>
+        <v>ITEM_TYPE_SOURCE</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C122" s="1" t="str">
-        <f>UPPER(A122)&amp;"_"&amp;UPPER(B122)</f>
+      <c r="C125" s="1" t="str">
+        <f>UPPER(A125)&amp;"_"&amp;UPPER(B125)</f>
         <v>ITEM_TYPE_SUPPORT_MODULE</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D125" s="3">
         <v>1</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C123" s="1" t="str">
-        <f>UPPER(A123)&amp;"_"&amp;UPPER(B123)</f>
+      <c r="C126" s="1" t="str">
+        <f>UPPER(A126)&amp;"_"&amp;UPPER(B126)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D126" s="3">
         <v>2</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>224</v>
       </c>
     </row>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59845051-5F19-4074-A997-BCB2D249CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BCDD0-528B-45C7-9405-628C8DF203FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -695,10 +695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dot_amor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지속 방어도 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,6 +927,10 @@
   </si>
   <si>
     <t>give_true_damage_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot_armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,8 +1379,8 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1517,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2219,17 +2219,17 @@
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EFFECT_TYPE_DOT_AMOR</v>
+        <f>UPPER(A51)&amp;"_"&amp;UPPER(B51)</f>
+        <v>EFFECT_TYPE_DOT_ARMOR</v>
       </c>
       <c r="D51" s="3">
         <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2237,17 +2237,17 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>UPPER(A52)&amp;"_"&amp;UPPER(B52)</f>
         <v>EFFECT_TYPE_TAKE_DAMAGE_UP_BUFF</v>
       </c>
       <c r="D52" s="3">
         <v>21</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>UPPER(A53)&amp;"_"&amp;UPPER(B53)</f>
@@ -2265,7 +2265,7 @@
         <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" ref="C54:C60" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
@@ -2283,7 +2283,7 @@
         <v>23</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2291,7 +2291,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2301,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2309,7 +2309,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2319,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2337,7 +2337,7 @@
         <v>26</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2345,7 +2345,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2355,7 +2355,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2373,7 +2373,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2391,7 +2391,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" ref="C61:C62" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
@@ -2409,7 +2409,7 @@
         <v>30</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2417,7 +2417,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2427,7 +2427,7 @@
         <v>31</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" ref="C63" si="4">UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
@@ -2445,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2661,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2894,7 +2894,7 @@
         <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2904,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3179,7 +3179,7 @@
     </row>
     <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C110" s="1" t="str">
         <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
@@ -3201,15 +3201,15 @@
         <v>0</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
@@ -3219,15 +3219,15 @@
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
@@ -3237,12 +3237,12 @@
         <v>2</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" ref="C114:C122" si="7">UPPER(A114)&amp;"_"&amp;UPPER(B114)</f>
@@ -3264,15 +3264,15 @@
         <v>0</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3282,15 +3282,15 @@
         <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3300,15 +3300,15 @@
         <v>2</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3318,15 +3318,15 @@
         <v>3</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3336,15 +3336,15 @@
         <v>4</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3354,15 +3354,15 @@
         <v>5</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3372,15 +3372,15 @@
         <v>6</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3390,15 +3390,15 @@
         <v>7</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3408,12 +3408,12 @@
         <v>8</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="C124" s="1" t="str">
         <f>UPPER(A124)&amp;"_"&amp;UPPER(B124)</f>
@@ -3435,12 +3435,12 @@
         <v>0</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>136</v>
@@ -3453,15 +3453,15 @@
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C126" s="1" t="str">
         <f>UPPER(A126)&amp;"_"&amp;UPPER(B126)</f>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BCDD0-528B-45C7-9405-628C8DF203FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD2095-DAFC-4609-B0CD-15DC26A15202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="253">
   <si>
     <t>int</t>
   </si>
@@ -519,418 +519,427 @@
     <t>보상 타입 - 아이템</t>
   </si>
   <si>
+    <t>보상 타입 - 근원</t>
+  </si>
+  <si>
+    <t>support_module</t>
+  </si>
+  <si>
+    <t>보상 타입 - 서포트 모듈</t>
+  </si>
+  <si>
+    <t>#아이템 관련 - 보상 포함 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_type</t>
+  </si>
+  <si>
+    <t>own_spell_source</t>
+  </si>
+  <si>
+    <t>특정 근원을 보유한 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>no_spell_source</t>
+  </si>
+  <si>
+    <t>특정 근원을 미보유한 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>clear_map</t>
+  </si>
+  <si>
+    <t>특정 맵을 클리어한 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>not_clear_map</t>
+  </si>
+  <si>
+    <t>특정 맵을 클리어하지 않은 상태인 경우 보상 풀에 포함</t>
+  </si>
+  <si>
+    <t>#전투 관련 - 어플리케이션 / 발동 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 관련 - 어플리케이션 / 발동 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_condition</t>
+  </si>
+  <si>
+    <t>relic_effect</t>
+  </si>
+  <si>
+    <t>#기타 - 조건 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical_operator</t>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 종료 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_minus_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 수치만큼 체력 없을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 특정 비율일 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템 관련 - 희귀도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀도 - 노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀도 - 희귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀도 - 특별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic_effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 타입 - 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 방어도 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC(장식용 액터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#다이얼로그 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#버튼 기능 - 다이얼로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog_type</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>다이얼로그 제목</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>다이얼로그 본문</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>버튼</t>
+  </si>
+  <si>
+    <t>button_function</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>보상 지급</t>
+  </si>
+  <si>
+    <t>select_reward</t>
+  </si>
+  <si>
+    <t>선택형 보상 지급</t>
+  </si>
+  <si>
+    <t>delete_source</t>
+  </si>
+  <si>
+    <t>근원 삭제</t>
+  </si>
+  <si>
+    <t>delete_support_module</t>
+  </si>
+  <si>
+    <t>서포트 모듈 삭제</t>
+  </si>
+  <si>
+    <t>delete_relic</t>
+  </si>
+  <si>
+    <t>어플리케이션 삭제</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>상점 기능 호출</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>강화 기능 호출</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>교환 기능 호출</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>맵 나가기</t>
+  </si>
+  <si>
+    <t>#아이템 타입 - 보상용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>근원</t>
+  </si>
+  <si>
+    <t>서포트 모듈</t>
+  </si>
+  <si>
+    <t>relic</t>
+  </si>
+  <si>
+    <t>어플리케이션</t>
+  </si>
+  <si>
+    <t>take_damage_up_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_down_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 감소 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>주는 피해량 증가 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 감소 (%)_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_proportion_given_damage</t>
+  </si>
+  <si>
+    <t>heal_proportion_taken_damage</t>
+  </si>
+  <si>
+    <t>damage_proportion_overheal</t>
+  </si>
+  <si>
+    <t>준 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 피해량 비례 회복 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 회복량 비례 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가 (%) 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_down_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력, 피해감소 무시 Damage Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_true_damage_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot_armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 타입 －조합식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_combine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>spell_source</t>
-  </si>
-  <si>
-    <t>보상 타입 - 근원</t>
-  </si>
-  <si>
-    <t>support_module</t>
-  </si>
-  <si>
-    <t>보상 타입 - 서포트 모듈</t>
-  </si>
-  <si>
-    <t>#아이템 관련 - 보상 포함 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exception_type</t>
-  </si>
-  <si>
-    <t>own_spell_source</t>
-  </si>
-  <si>
-    <t>특정 근원을 보유한 상태인 경우 보상 풀에 포함</t>
-  </si>
-  <si>
-    <t>no_spell_source</t>
-  </si>
-  <si>
-    <t>특정 근원을 미보유한 상태인 경우 보상 풀에 포함</t>
-  </si>
-  <si>
-    <t>clear_map</t>
-  </si>
-  <si>
-    <t>특정 맵을 클리어한 상태인 경우 보상 풀에 포함</t>
-  </si>
-  <si>
-    <t>not_clear_map</t>
-  </si>
-  <si>
-    <t>특정 맵을 클리어하지 않은 상태인 경우 보상 풀에 포함</t>
-  </si>
-  <si>
-    <t>#전투 관련 - 어플리케이션 / 발동 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 관련 - 어플리케이션 / 발동 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_condition</t>
-  </si>
-  <si>
-    <t>relic_effect</t>
-  </si>
-  <si>
-    <t>#기타 - 조건 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logical_operator</t>
-  </si>
-  <si>
-    <t>AND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 시작 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 종료 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_minus_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 수치만큼 체력 없을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 특정 비율일 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#아이템 관련 - 희귀도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀도 - 노말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀도 - 희귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀도 - 특별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relic_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 타입 - 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속 방어도 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC(장식용 액터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#다이얼로그 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#버튼 기능 - 다이얼로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialog_type</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>다이얼로그 제목</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>다이얼로그 본문</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>버튼</t>
-  </si>
-  <si>
-    <t>button_function</t>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>보상 지급</t>
-  </si>
-  <si>
-    <t>select_reward</t>
-  </si>
-  <si>
-    <t>선택형 보상 지급</t>
-  </si>
-  <si>
-    <t>delete_source</t>
-  </si>
-  <si>
-    <t>근원 삭제</t>
-  </si>
-  <si>
-    <t>delete_support_module</t>
-  </si>
-  <si>
-    <t>서포트 모듈 삭제</t>
-  </si>
-  <si>
-    <t>delete_relic</t>
-  </si>
-  <si>
-    <t>어플리케이션 삭제</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>상점 기능 호출</t>
-  </si>
-  <si>
-    <t>enhance</t>
-  </si>
-  <si>
-    <t>강화 기능 호출</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>교환 기능 호출</t>
-  </si>
-  <si>
-    <t>exit</t>
-  </si>
-  <si>
-    <t>맵 나가기</t>
-  </si>
-  <si>
-    <t>#아이템 타입 - 보상용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>근원</t>
-  </si>
-  <si>
-    <t>서포트 모듈</t>
-  </si>
-  <si>
-    <t>relic</t>
-  </si>
-  <si>
-    <t>어플리케이션</t>
-  </si>
-  <si>
-    <t>take_damage_up_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>take_damage_down_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 피해량 감소 (%) 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_damage_up_buff</t>
-  </si>
-  <si>
-    <t>give_damage_down_buff</t>
-  </si>
-  <si>
-    <t>주는 피해량 증가 (%)_버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주는 피해량 감소 (%)_버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 무효화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ignore_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal_proportion_given_damage</t>
-  </si>
-  <si>
-    <t>heal_proportion_taken_damage</t>
-  </si>
-  <si>
-    <t>damage_proportion_overheal</t>
-  </si>
-  <si>
-    <t>준 피해량 비례 회복 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받은 피해량 비례 회복 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초과 회복량 비례 피해 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 피해량 증가 (%) 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_damage_up_fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_damage_down_fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 피해량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 피해량 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력, 피해감소 무시 Damage Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give_true_damage_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot_armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,11 +1385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C52" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C50" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>LANGUAGE_TYPE_KOR</v>
       </c>
       <c r="D5" s="1">
@@ -1517,7 +1526,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1527,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2219,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="1" t="str">
         <f>UPPER(A51)&amp;"_"&amp;UPPER(B51)</f>
@@ -2229,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2237,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C52" s="1" t="str">
         <f>UPPER(A52)&amp;"_"&amp;UPPER(B52)</f>
@@ -2247,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,7 +2264,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>UPPER(A53)&amp;"_"&amp;UPPER(B53)</f>
@@ -2265,7 +2274,7 @@
         <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2273,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" ref="C54:C60" si="2">UPPER(A54)&amp;"_"&amp;UPPER(B54)</f>
@@ -2283,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2291,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2301,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2309,7 +2318,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2319,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2327,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2337,7 +2346,7 @@
         <v>26</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2345,7 +2354,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2355,7 +2364,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2363,7 +2372,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2373,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2391,7 +2400,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2399,7 +2408,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" ref="C61:C62" si="3">UPPER(A61)&amp;"_"&amp;UPPER(B61)</f>
@@ -2409,7 +2418,7 @@
         <v>30</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2417,7 +2426,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2427,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,7 +2444,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" ref="C63" si="4">UPPER(A63)&amp;"_"&amp;UPPER(B63)</f>
@@ -2445,7 +2454,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2633,7 +2642,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2643,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2651,7 +2660,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2661,12 +2670,12 @@
         <v>5</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2675,10 +2684,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
@@ -2688,15 +2697,15 @@
         <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
@@ -2706,15 +2715,15 @@
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
@@ -2724,15 +2733,15 @@
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
@@ -2742,12 +2751,12 @@
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2756,10 +2765,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1" t="str">
         <f>UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
@@ -2769,15 +2778,15 @@
         <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="1" t="str">
         <f>UPPER(A84)&amp;"_"&amp;UPPER(B84)</f>
@@ -2787,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2894,7 +2903,7 @@
         <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2904,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2939,7 +2948,7 @@
         <v>131</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
@@ -2949,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,7 +2966,7 @@
         <v>131</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
@@ -2967,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2975,7 +2984,7 @@
         <v>131</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
@@ -2985,493 +2994,511 @@
         <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
+        <v>REWARD_TYPE_SPELL_COMBINE</v>
+      </c>
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C99" s="1" t="str">
         <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D100" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D102" s="3">
         <v>3</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="1" t="str">
-        <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D103" s="3">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="E102" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
-        <v>RARITY_RARE</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
+        <v>RARITY_RARE</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D106" s="3">
         <v>2</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" s="1" t="str">
-        <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
-        <v>LOGICAL_OPERATOR_AND</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="E106" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D109" s="3">
         <v>1</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" s="1" t="str">
-        <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
-        <v>DIALOG_TYPE_TITLE</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="E109" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
-        <v>DIALOG_TYPE_TEXT</v>
+        <v>DIALOG_TYPE_TITLE</v>
       </c>
       <c r="D111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
+        <v>DIALOG_TYPE_TEXT</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
         <v>DIALOG_TYPE_BUTTON</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D113" s="3">
         <v>2</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="1" t="str">
-        <f t="shared" ref="C114:C122" si="7">UPPER(A114)&amp;"_"&amp;UPPER(B114)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="E113" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="C115" s="1" t="str">
+        <f t="shared" ref="C115:C123" si="7">UPPER(A115)&amp;"_"&amp;UPPER(B115)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D116" s="3">
         <v>1</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E116" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C116" s="1" t="str">
+      <c r="C117" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D117" s="3">
         <v>2</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117" s="1" t="str">
+      <c r="C118" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D118" s="3">
         <v>3</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E118" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C118" s="1" t="str">
+      <c r="C119" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D119" s="3">
         <v>4</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E119" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C119" s="1" t="str">
+      <c r="C120" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_SHOP</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D120" s="3">
         <v>5</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" s="1" t="str">
+      <c r="C121" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_ENHANCE</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D121" s="3">
         <v>6</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E121" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C121" s="1" t="str">
+      <c r="C122" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_EXCHANGE</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D122" s="3">
         <v>7</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C122" s="1" t="str">
+      <c r="C123" s="1" t="str">
         <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_EXIT</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <v>8</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="1" t="str">
-        <f>UPPER(A124)&amp;"_"&amp;UPPER(B124)</f>
-        <v>ITEM_TYPE_SOURCE</v>
-      </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C125" s="1" t="str">
         <f>UPPER(A125)&amp;"_"&amp;UPPER(B125)</f>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+        <v>ITEM_TYPE_SOURCE</v>
       </c>
       <c r="D125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="C126" s="1" t="str">
         <f>UPPER(A126)&amp;"_"&amp;UPPER(B126)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f>UPPER(A127)&amp;"_"&amp;UPPER(B127)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D127" s="3">
         <v>2</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>223</v>
+      <c r="E127" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/enum.xlsx
+++ b/GameData/Excel/enum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD2095-DAFC-4609-B0CD-15DC26A15202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69BED26-6CA7-483E-B9A8-528072969C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="255">
   <si>
     <t>int</t>
   </si>
@@ -940,6 +940,14 @@
   </si>
   <si>
     <t>spell_source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,11 +1393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2556,49 +2564,49 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>UPPER(A70)&amp;"_"&amp;UPPER(B70)</f>
+        <v>SUPPORT_MODULE_EFFECT_GET_REWARD</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" ref="C71:C76" si="5">UPPER(A71)&amp;"_"&amp;UPPER(B71)</f>
-        <v>TARGET_TYPE_SELF</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>TARGET_TYPE_ENEMY</v>
+        <f t="shared" ref="C72:C77" si="5">UPPER(A72)&amp;"_"&amp;UPPER(B72)</f>
+        <v>TARGET_TYPE_SELF</v>
       </c>
       <c r="D72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2606,17 +2614,17 @@
         <v>62</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
+        <v>TARGET_TYPE_ENEMY</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2624,17 +2632,17 @@
         <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
+        <v>TARGET_TYPE_ALLY_HP_HIGHEST</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2642,17 +2650,17 @@
         <v>62</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TARGET_TYPE_ENEMY_ALL</v>
+        <v>TARGET_TYPE_ALLY_HP_LOWEST</v>
       </c>
       <c r="D75" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2660,80 +2668,80 @@
         <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="5"/>
+        <v>TARGET_TYPE_ENEMY_ALL</v>
+      </c>
+      <c r="D76" s="3">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>TARGET_TYPE_ALLY_ALL</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>5</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f>UPPER(A78)&amp;"_"&amp;UPPER(B78)</f>
-        <v>ACTIVE_CONDITION_BATTLE_START</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>UPPER(A79)&amp;"_"&amp;UPPER(B79)</f>
-        <v>ACTIVE_CONDITION_BATTLE_END</v>
+        <v>ACTIVE_CONDITION_BATTLE_START</v>
       </c>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>UPPER(A80)&amp;"_"&amp;UPPER(B80)</f>
-        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+        <v>ACTIVE_CONDITION_BATTLE_END</v>
       </c>
       <c r="D80" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2741,107 +2749,107 @@
         <v>149</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>UPPER(A81)&amp;"_"&amp;UPPER(B81)</f>
+        <v>ACTIVE_CONDITION_HP_MINUS_VALUE</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>UPPER(A82)&amp;"_"&amp;UPPER(B82)</f>
         <v>ACTIVE_CONDITION_HP_PERCENT</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D82" s="3">
         <v>3</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f>UPPER(A83)&amp;"_"&amp;UPPER(B83)</f>
-        <v>RELIC_EFFECT_HEAL</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="1" t="str">
         <f>UPPER(A84)&amp;"_"&amp;UPPER(B84)</f>
+        <v>RELIC_EFFECT_HEAL</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>UPPER(A85)&amp;"_"&amp;UPPER(B85)</f>
         <v>RELIC_EFFECT_ARMOR</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>1</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" ref="C86:C91" si="6">UPPER(A86)&amp;"_"&amp;UPPER(B86)</f>
-        <v>MAP_TYPE_BATTLE_NORMAL</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>MAP_TYPE_BATTLE_ELITE</v>
+        <f t="shared" ref="C87:C92" si="6">UPPER(A87)&amp;"_"&amp;UPPER(B87)</f>
+        <v>MAP_TYPE_BATTLE_NORMAL</v>
       </c>
       <c r="D87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2849,17 +2857,17 @@
         <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>MAP_TYPE_BATTLE_BOSS</v>
+        <v>MAP_TYPE_BATTLE_ELITE</v>
       </c>
       <c r="D88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,17 +2875,17 @@
         <v>108</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>MAP_TYPE_SHOP</v>
+        <v>MAP_TYPE_BATTLE_BOSS</v>
       </c>
       <c r="D89" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2885,17 +2893,17 @@
         <v>108</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>MAP_TYPE_ENHANCE</v>
+        <v>MAP_TYPE_SHOP</v>
       </c>
       <c r="D90" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2903,62 +2911,62 @@
         <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="6"/>
+        <v>MAP_TYPE_ENHANCE</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>MAP_TYPE_SPECIAL</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D92" s="3">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="1" t="str">
-        <f>UPPER(A93)&amp;"_"&amp;UPPER(B93)</f>
-        <v>REWARD_TYPE_ITEM</v>
-      </c>
-      <c r="D93" s="3">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>UPPER(A94)&amp;"_"&amp;UPPER(B94)</f>
-        <v>REWARD_TYPE_SPELL_SOURCE</v>
+        <v>REWARD_TYPE_ITEM</v>
       </c>
       <c r="D94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2966,17 +2974,17 @@
         <v>131</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>UPPER(A95)&amp;"_"&amp;UPPER(B95)</f>
-        <v>REWARD_TYPE_SUPPORT_MODULE</v>
+        <v>REWARD_TYPE_SPELL_SOURCE</v>
       </c>
       <c r="D95" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2984,17 +2992,17 @@
         <v>131</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>UPPER(A96)&amp;"_"&amp;UPPER(B96)</f>
-        <v>REWARD_TYPE_MONEY</v>
+        <v>REWARD_TYPE_SUPPORT_MODULE</v>
       </c>
       <c r="D96" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3002,62 +3010,62 @@
         <v>131</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>UPPER(A97)&amp;"_"&amp;UPPER(B97)</f>
+        <v>REWARD_TYPE_MONEY</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>UPPER(A98)&amp;"_"&amp;UPPER(B98)</f>
         <v>REWARD_TYPE_SPELL_COMBINE</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D98" s="3">
         <v>4</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <f>UPPER(A99)&amp;"_"&amp;UPPER(B99)</f>
-        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
-      </c>
-      <c r="D99" s="3">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>UPPER(A100)&amp;"_"&amp;UPPER(B100)</f>
-        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
+        <v>EXCEPTION_TYPE_OWN_SPELL_SOURCE</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3065,17 +3073,17 @@
         <v>138</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>UPPER(A101)&amp;"_"&amp;UPPER(B101)</f>
-        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+        <v>EXCEPTION_TYPE_NO_SPELL_SOURCE</v>
       </c>
       <c r="D101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3083,62 +3091,62 @@
         <v>138</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="1" t="str">
         <f>UPPER(A102)&amp;"_"&amp;UPPER(B102)</f>
+        <v>EXCEPTION_TYPE_CLEAR_MAP</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>UPPER(A103)&amp;"_"&amp;UPPER(B103)</f>
         <v>EXCEPTION_TYPE_NOT_CLEAR_MAP</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D103" s="3">
         <v>3</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    <row r="104" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="1" t="str">
-        <f>UPPER(A104)&amp;"_"&amp;UPPER(B104)</f>
-        <v>RARITY_NORMAL</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>UPPER(A105)&amp;"_"&amp;UPPER(B105)</f>
-        <v>RARITY_RARE</v>
+        <v>RARITY_NORMAL</v>
       </c>
       <c r="D105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3146,107 +3154,107 @@
         <v>170</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="1" t="str">
         <f>UPPER(A106)&amp;"_"&amp;UPPER(B106)</f>
+        <v>RARITY_RARE</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>UPPER(A107)&amp;"_"&amp;UPPER(B107)</f>
         <v>RARITY_EPIC</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D107" s="3">
         <v>2</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+    <row r="108" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="1" t="str">
-        <f>UPPER(A108)&amp;"_"&amp;UPPER(B108)</f>
-        <v>LOGICAL_OPERATOR_AND</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" s="1" t="str">
         <f>UPPER(A109)&amp;"_"&amp;UPPER(B109)</f>
+        <v>LOGICAL_OPERATOR_AND</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>UPPER(A110)&amp;"_"&amp;UPPER(B110)</f>
         <v>LOGICAL_OPERATOR_OR</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D110" s="3">
         <v>1</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+    <row r="111" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="1" t="str">
-        <f>UPPER(A111)&amp;"_"&amp;UPPER(B111)</f>
-        <v>DIALOG_TYPE_TITLE</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>UPPER(A112)&amp;"_"&amp;UPPER(B112)</f>
-        <v>DIALOG_TYPE_TEXT</v>
+        <v>DIALOG_TYPE_TITLE</v>
       </c>
       <c r="D112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,62 +3262,62 @@
         <v>190</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C113" s="1" t="str">
         <f>UPPER(A113)&amp;"_"&amp;UPPER(B113)</f>
+        <v>DIALOG_TYPE_TEXT</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>UPPER(A114)&amp;"_"&amp;UPPER(B114)</f>
         <v>DIALOG_TYPE_BUTTON</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D114" s="3">
         <v>2</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+    <row r="115" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" s="1" t="str">
-        <f t="shared" ref="C115:C123" si="7">UPPER(A115)&amp;"_"&amp;UPPER(B115)</f>
-        <v>BUTTON_FUNCTION_REWARD</v>
-      </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
+        <f t="shared" ref="C116:C124" si="7">UPPER(A116)&amp;"_"&amp;UPPER(B116)</f>
+        <v>BUTTON_FUNCTION_REWARD</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3317,17 +3325,17 @@
         <v>197</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
+        <v>BUTTON_FUNCTION_SELECT_REWARD</v>
       </c>
       <c r="D117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3335,17 +3343,17 @@
         <v>197</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
+        <v>BUTTON_FUNCTION_DELETE_SOURCE</v>
       </c>
       <c r="D118" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3353,17 +3361,17 @@
         <v>197</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
+        <v>BUTTON_FUNCTION_DELETE_SUPPORT_MODULE</v>
       </c>
       <c r="D119" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,17 +3379,17 @@
         <v>197</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_SHOP</v>
+        <v>BUTTON_FUNCTION_DELETE_RELIC</v>
       </c>
       <c r="D120" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3389,17 +3397,17 @@
         <v>197</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_ENHANCE</v>
+        <v>BUTTON_FUNCTION_SHOP</v>
       </c>
       <c r="D121" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3407,17 +3415,17 @@
         <v>197</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>BUTTON_FUNCTION_EXCHANGE</v>
+        <v>BUTTON_FUNCTION_ENHANCE</v>
       </c>
       <c r="D122" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3425,62 +3433,62 @@
         <v>197</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C123" s="1" t="str">
         <f t="shared" si="7"/>
+        <v>BUTTON_FUNCTION_EXCHANGE</v>
+      </c>
+      <c r="D123" s="3">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>BUTTON_FUNCTION_EXIT</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <v>8</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+    <row r="125" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="1" t="str">
-        <f>UPPER(A125)&amp;"_"&amp;UPPER(B125)</f>
-        <v>ITEM_TYPE_SOURCE</v>
-      </c>
-      <c r="D125" s="3">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="C126" s="1" t="str">
         <f>UPPER(A126)&amp;"_"&amp;UPPER(B126)</f>
-        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+        <v>ITEM_TYPE_SOURCE</v>
       </c>
       <c r="D126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3488,16 +3496,34 @@
         <v>217</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="C127" s="1" t="str">
         <f>UPPER(A127)&amp;"_"&amp;UPPER(B127)</f>
+        <v>ITEM_TYPE_SUPPORT_MODULE</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f>UPPER(A128)&amp;"_"&amp;UPPER(B128)</f>
         <v>ITEM_TYPE_RELIC</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D128" s="3">
         <v>2</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>222</v>
       </c>
     </row>
